--- a/Data/Analyzed/DataAnalyzed.xlsx
+++ b/Data/Analyzed/DataAnalyzed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passa\Documents\Scuola\Git\VelLuce\Data\Analyzed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passa\Documents\Scuola\Corsi\Fisica\Laboratorio\LaboratorioOtticaElettronicaFModerna\Git\VelLuce\Data\Analyzed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
   <si>
     <t>Costanti</t>
   </si>
@@ -224,9 +224,6 @@
     <t>C dev std</t>
   </si>
   <si>
-    <t>C rel errorù</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
@@ -253,15 +250,103 @@
   <si>
     <t>C vero</t>
   </si>
+  <si>
+    <t>Hz iniziali</t>
+  </si>
+  <si>
+    <t>error strum rel</t>
+  </si>
+  <si>
+    <t>error rand rel</t>
+  </si>
+  <si>
+    <t>Error strum rel</t>
+  </si>
+  <si>
+    <t>Error rand rel</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Strum error rel</t>
+  </si>
+  <si>
+    <t>random error rel</t>
+  </si>
+  <si>
+    <t>C rel error</t>
+  </si>
+  <si>
+    <t>clock to counter</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="173" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,16 +354,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -287,52 +404,270 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
       <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -361,13 +696,26 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11418527175412665"/>
+          <c:y val="3.1399912385928076E-2"/>
+          <c:w val="0.76959858074276355"/>
+          <c:h val="0.84184918287178612"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocità misurata</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -382,7 +730,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -390,20 +738,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -625,7 +959,7 @@
             <c:numRef>
               <c:f>'Misura di c'!$W$13:$W$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>309712059.55000132</c:v>
@@ -698,10 +1032,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C</c:v>
+            <c:v>Velocità teorica</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -883,6 +1217,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -917,7 +1306,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408671064"/>
@@ -945,7 +1334,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Velocità</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -979,7 +1427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="408670736"/>
@@ -994,6 +1442,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88609439058916373"/>
+          <c:y val="0.36333856815050919"/>
+          <c:w val="0.10501892444055286"/>
+          <c:h val="0.19910466420187467"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1020,7 +1509,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1052,10 +1541,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7222737345004793E-2"/>
-          <c:y val="3.8974896483996921E-2"/>
-          <c:w val="0.91087245210667755"/>
-          <c:h val="0.8974712350627706"/>
+          <c:x val="0.16114909932411248"/>
+          <c:y val="3.88845884816445E-2"/>
+          <c:w val="0.67483563662877533"/>
+          <c:h val="0.80415138212862092"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1064,6 +1553,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Velocità misurata</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1078,7 +1570,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1086,20 +1578,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1278,7 +1756,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C05-48EB-9733-93D757319EF9}"/>
+              <c16:uniqueId val="{00000002-6059-4EC9-9CD8-EBEE95229788}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,10 +1764,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C</c:v>
+            <c:v>Velocità teorica</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1381,7 +1859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D408-47EC-AC77-5BA48FE478E3}"/>
+              <c16:uniqueId val="{00000003-6059-4EC9-9CD8-EBEE95229788}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,11 +1871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408670736"/>
-        <c:axId val="408671064"/>
+        <c:axId val="398328080"/>
+        <c:axId val="398329392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408670736"/>
+        <c:axId val="398328080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,6 +1895,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1451,15 +1984,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408671064"/>
+        <c:crossAx val="398329392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408671064"/>
+        <c:axId val="398329392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250000000"/>
@@ -1480,6 +2013,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Velocità</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1514,10 +2106,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408670736"/>
+        <c:crossAx val="398328080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1529,6 +2121,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85365607175451774"/>
+          <c:y val="0.35117515238611369"/>
+          <c:w val="0.13377717684256091"/>
+          <c:h val="0.24977822980763958"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1555,7 +2188,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1587,10 +2220,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.0075875767184877E-2"/>
-          <c:y val="1.5675015304739352E-2"/>
-          <c:w val="0.96470806632598471"/>
-          <c:h val="0.95126742092252126"/>
+          <c:x val="0.1371213392262185"/>
+          <c:y val="3.6282331076141212E-2"/>
+          <c:w val="0.73349208345459238"/>
+          <c:h val="0.81725807905184944"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1599,6 +2232,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Valori misurati</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1613,7 +2249,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1621,20 +2257,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -1642,10 +2264,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Misura di c (3)'!$V$13:$V$42</c:f>
+                <c:f>'Misura di c (3)'!$V$13:$V$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="30"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>7062974.7793081347</c:v>
                   </c:pt>
@@ -1681,10 +2303,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Misura di c (3)'!$V$13:$V$41</c:f>
+                <c:f>'Misura di c (3)'!$V$13:$V$22</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="29"/>
+                  <c:ptCount val="10"/>
                   <c:pt idx="0">
                     <c:v>7062974.7793081347</c:v>
                   </c:pt>
@@ -1813,7 +2435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-736C-47CD-B5A4-5534AB3946F3}"/>
+              <c16:uniqueId val="{00000000-FADC-4E48-8D26-300160021CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1821,10 +2443,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>C</c:v>
+            <c:v>Velocità teorica</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1919,7 +2541,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4D05-4D3D-8C53-D8144B9735BF}"/>
+              <c16:uniqueId val="{00000001-FADC-4E48-8D26-300160021CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1931,11 +2553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408670736"/>
-        <c:axId val="408671064"/>
+        <c:axId val="221509480"/>
+        <c:axId val="221508824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408670736"/>
+        <c:axId val="221509480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,6 +2577,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1989,15 +2666,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408671064"/>
+        <c:crossAx val="221508824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408671064"/>
+        <c:axId val="221508824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,6 +2694,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Velocità (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2051,10 +2783,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408670736"/>
+        <c:crossAx val="221509480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2066,6 +2798,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88228117846126008"/>
+          <c:y val="0.44433908630338104"/>
+          <c:w val="0.10704709369076804"/>
+          <c:h val="0.21357177343723011"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2092,7 +2865,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3778,13 +4551,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>550324</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>84844</xdr:rowOff>
+      <xdr:rowOff>84843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>61232</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3816,29 +4589,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>536862</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160624</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>609535</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>606138</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>89728</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>607440</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>187215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D0C417A-493E-49FA-ADE9-6B654A3D4F18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2232805D-7C9C-4664-BDB3-2CFE40DB95BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3859,29 +4630,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>464342</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85858</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B241BE-B960-4B98-9881-730BDC7727C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969F1D34-60DA-40A2-B882-122BDEEED6B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3896,6 +4665,35 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="V26:AO54" totalsRowShown="0">
+  <autoFilter ref="V26:AO54"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="Column1" dataDxfId="19"/>
+    <tableColumn id="2" name="Column2" dataDxfId="18"/>
+    <tableColumn id="3" name="Column3" dataDxfId="17"/>
+    <tableColumn id="4" name="Column4" dataDxfId="16"/>
+    <tableColumn id="5" name="Column5" dataDxfId="15"/>
+    <tableColumn id="6" name="Column6" dataDxfId="14"/>
+    <tableColumn id="7" name="Column7" dataDxfId="13"/>
+    <tableColumn id="8" name="Column8" dataDxfId="12"/>
+    <tableColumn id="9" name="Column9" dataDxfId="11"/>
+    <tableColumn id="10" name="Column10" dataDxfId="10"/>
+    <tableColumn id="11" name="Column11" dataDxfId="9"/>
+    <tableColumn id="12" name="Column12" dataDxfId="8"/>
+    <tableColumn id="13" name="Column13" dataDxfId="7"/>
+    <tableColumn id="14" name="Column14" dataDxfId="6"/>
+    <tableColumn id="15" name="Column15" dataDxfId="5"/>
+    <tableColumn id="16" name="Column16" dataDxfId="4"/>
+    <tableColumn id="17" name="Column17" dataDxfId="3"/>
+    <tableColumn id="18" name="Column18" dataDxfId="2"/>
+    <tableColumn id="19" name="Column19" dataDxfId="1"/>
+    <tableColumn id="20" name="Column20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4201,19 +4999,19 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>26</v>
       </c>
@@ -4224,7 +5022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4239,7 +5037,7 @@
         <v>4.7619047619047615E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4254,7 +5052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4269,7 +5067,7 @@
         <v>4.5941807044410409E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -4286,7 +5084,7 @@
         <v>2.3214381635323744E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4303,7 +5101,7 @@
         <v>1.2371134020618558E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4320,12 +5118,12 @@
         <v>3.968253968253968E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -4333,7 +5131,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4341,7 +5139,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4352,7 +5150,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -4363,16 +5161,16 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <f>299792458/1.000276</f>
         <v>299709738.11228102</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f t="array" ref="D19:F21">TRANSPOSE(A22:C24)</f>
         <v>C 1</v>
@@ -4384,9 +5182,9 @@
         <v>C 3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>2663158.5332805468</v>
@@ -4398,9 +5196,9 @@
         <v>2495874.9336498161</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>295426058.46105742</v>
@@ -4412,12 +5210,12 @@
         <v>295862608.34069848</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22">
-        <f>'Misura di c'!E63</f>
+        <f>'Misura di c'!G63</f>
         <v>2663158.5332805468</v>
       </c>
       <c r="C22">
@@ -4437,12 +5235,12 @@
         <v>0.11960582629382467</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23">
-        <f>'Misura di c (2)'!D41</f>
+        <f>'Misura di c (2)'!F41</f>
         <v>6554276.0437071687</v>
       </c>
       <c r="C23">
@@ -4462,12 +5260,12 @@
         <v>-1.3797743751746323</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24">
-        <f>'Misura di c (3)'!E43</f>
+        <f>'Misura di c (3)'!G43</f>
         <v>2495874.9336498161</v>
       </c>
       <c r="C24">
@@ -4487,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -4501,7 +5299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>C22</f>
         <v>295426058.46105742</v>
@@ -4522,19 +5320,19 @@
         <v>59</v>
       </c>
       <c r="I27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" t="s">
         <v>72</v>
       </c>
-      <c r="J27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28:A29" si="3">C23</f>
         <v>305539532.36232483</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="4">B23</f>
+        <f t="shared" ref="B28" si="4">B23</f>
         <v>6554276.0437071687</v>
       </c>
       <c r="C28">
@@ -4558,7 +5356,7 @@
         <v>5.9205283421556272E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
         <v>295862608.34069848</v>
@@ -4576,7 +5374,7 @@
         <v>4.7494622802511314E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30">
         <f>SUM(C27:C29)</f>
         <v>3.2480330959807147E-13</v>
@@ -4589,7 +5387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31">
         <f>ABS(H28-B18)/I28</f>
         <v>1.9052838488387545</v>
@@ -4604,44 +5402,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScale="192" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="P7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="7" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.53125" customWidth="1"/>
-    <col min="21" max="22" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="46" max="53" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" customWidth="1"/>
+    <col min="49" max="53" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4652,7 +5443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4666,7 +5457,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +5471,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4694,7 +5485,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4707,7 +5498,7 @@
         <v>0.31182687504447071</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4720,7 +5511,7 @@
         <v>8.3741192444340058</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4728,15 +5519,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.45">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4747,143 +5539,146 @@
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="31">
         <v>299792458</v>
       </c>
-      <c r="W10" t="s">
+      <c r="V10" s="21"/>
+      <c r="W10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="21">
         <f t="array" ref="X10:AP12">TRANSPOSE(U13:W31)</f>
         <v>1</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="21">
         <v>2</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="21">
         <v>3</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="21">
         <v>4</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="21">
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="21">
         <v>6</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="21">
         <v>7</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="21">
         <v>8</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="21">
         <v>9</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="21">
         <v>10</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="21">
         <v>11</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="21">
         <v>12</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="21">
         <v>13</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="21">
         <v>14</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="21">
         <v>15</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="21">
         <v>16</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="21">
         <v>17</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="21">
         <v>18</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="21">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" s="7"/>
+      <c r="V11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="X11">
+      <c r="W11" s="24"/>
+      <c r="X11" s="32">
         <v>12135867.314643776</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="32">
         <v>11923104.335838627</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="32">
         <v>11509465.705900948</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="32">
         <v>11917686.563268071</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="32">
         <v>11799492.486923832</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="32">
         <v>11553582.53513561</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="32">
         <v>11754559.347690133</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="32">
         <v>11521876.436601106</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="32">
         <v>11799734.702880995</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="32">
         <v>11511224.214609219</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="32">
         <v>11650651.725076219</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="32">
         <v>11587409.442439195</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="32">
         <v>11869401.803500693</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="32">
         <v>11835105.980329342</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="32">
         <v>11761144.772969939</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="32">
         <v>11738123.314245939</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="32">
         <v>11685451.078105323</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="32">
         <v>11733200.191479869</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="32">
         <v>11594107.523879871</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4927,74 +5722,75 @@
       <c r="S12" t="s">
         <v>37</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="W12" t="s">
+      <c r="V12" s="22"/>
+      <c r="W12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="34">
         <v>309712059.55000132</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="34">
         <v>281130943.72591871</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="34">
         <v>309348547.74302012</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="34">
         <v>301351287.98938149</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="34">
         <v>284266233.06115103</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="34">
         <v>298276174.59516788</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="34">
         <v>282015256.10252202</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="34">
         <v>301367811.25333238</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="34">
         <v>281256355.29932851</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="34">
         <v>291086862.49218649</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="34">
         <v>286655024.935615</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="34">
         <v>306097136.58055419</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="34">
         <v>303774700.03593844</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="34">
         <v>298728108.19303924</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="34">
         <v>297146340.60049045</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="34">
         <v>293507085.83868241</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="34">
         <v>296807390.40208662</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="34">
         <v>287126497.01610231</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="34">
         <v>290646821.88373274</v>
       </c>
       <c r="AQ12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:43" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -5014,11 +5810,11 @@
         <f>ABS(E13-D13)</f>
         <v>2.1999999999999971E-4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="31">
         <f>2*PI()*B13</f>
         <v>383.27430373795477</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="31">
         <f>2*PI()*C13</f>
         <v>5736.5481854549625</v>
       </c>
@@ -5034,7 +5830,7 @@
         <f>((4*$B$6*$B$5*(H13-G13)/(($B$5-$B$2)^2*F13))*$C$2)^2</f>
         <v>1712378419495.7085</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="31">
         <f>4*$B$2*$B$6*ABS(H13-G13)/(($B$5-$B$2)*F13)</f>
         <v>323789880.43863964</v>
       </c>
@@ -5042,7 +5838,7 @@
         <f>SQRT(K13+L13+M13)</f>
         <v>7757256.2925263867</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="31">
         <f>SQRT(P13^2+$O$37^2)</f>
         <v>12135867.314643776</v>
       </c>
@@ -5054,99 +5850,99 @@
         <f>(O13-$B$10)/P13</f>
         <v>3.0935451316414029</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="20">
         <v>1</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="35">
         <f>Q13</f>
         <v>12135867.314643776</v>
       </c>
-      <c r="W13">
-        <f>O14</f>
+      <c r="W13" s="35">
+        <f t="shared" ref="W13:W31" si="0">O14</f>
         <v>309712059.55000132</v>
       </c>
-      <c r="X13" s="5">
-        <f>ABS(($W13-X$12)/SQRT($V13^2+X$11^2))</f>
+      <c r="X13" s="25">
+        <f t="shared" ref="X13:AG22" si="1">ABS(($W13-X$12)/SQRT($V13^2+X$11^2))</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="6">
-        <f t="shared" ref="Y13:AP27" si="0">ABS(($W13-Y$12)/SQRT($V13^2+Y$11^2))</f>
+      <c r="Y13" s="26">
+        <f t="shared" si="1"/>
         <v>1.679964621018768</v>
       </c>
-      <c r="Z13" s="6">
-        <f t="shared" si="0"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="1"/>
         <v>2.1733803854776308E-2</v>
       </c>
-      <c r="AA13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AA13" s="26">
+        <f t="shared" si="1"/>
         <v>0.4915460812710884</v>
       </c>
-      <c r="AB13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AB13" s="26">
+        <f t="shared" si="1"/>
         <v>1.5033105894491572</v>
       </c>
-      <c r="AC13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AC13" s="26">
+        <f t="shared" si="1"/>
         <v>0.68249369828474349</v>
       </c>
-      <c r="AD13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AD13" s="26">
+        <f t="shared" si="1"/>
         <v>1.6393263928614175</v>
       </c>
-      <c r="AE13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="26">
+        <f t="shared" si="1"/>
         <v>0.49863490966546525</v>
       </c>
-      <c r="AF13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AF13" s="26">
+        <f t="shared" si="1"/>
         <v>1.6811139864396913</v>
       </c>
-      <c r="AG13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AG13" s="26">
+        <f t="shared" si="1"/>
         <v>1.1134909129708639</v>
       </c>
-      <c r="AH13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AH13" s="26">
+        <f t="shared" ref="AH13:AP22" si="2">ABS(($W13-AH$12)/SQRT($V13^2+AH$11^2))</f>
         <v>1.3705573716165684</v>
       </c>
-      <c r="AI13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AI13" s="26">
+        <f t="shared" si="2"/>
         <v>0.21543851079980614</v>
       </c>
-      <c r="AJ13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AJ13" s="26">
+        <f t="shared" si="2"/>
         <v>0.34976392267562206</v>
       </c>
-      <c r="AK13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AK13" s="26">
+        <f t="shared" si="2"/>
         <v>0.64796828401239914</v>
       </c>
-      <c r="AL13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AL13" s="26">
+        <f t="shared" si="2"/>
         <v>0.7435417336614889</v>
       </c>
-      <c r="AM13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AM13" s="26">
+        <f t="shared" si="2"/>
         <v>0.95979403502052718</v>
       </c>
-      <c r="AN13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AN13" s="26">
+        <f t="shared" si="2"/>
         <v>0.76598181372720442</v>
       </c>
-      <c r="AO13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AO13" s="26">
+        <f t="shared" si="2"/>
         <v>1.3379770606744144</v>
       </c>
-      <c r="AP13" s="6">
-        <f t="shared" si="0"/>
+      <c r="AP13" s="26">
+        <f t="shared" si="2"/>
         <v>1.1359175047902601</v>
       </c>
-      <c r="AQ13" s="7">
+      <c r="AQ13" s="3">
         <f>$B$10</f>
         <v>299792458</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5163,142 +5959,142 @@
         <v>1.017E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14:F21" si="1">ABS(E14-D14)</f>
+        <f t="shared" ref="F14:F21" si="3">ABS(E14-D14)</f>
         <v>2.3000000000000104E-4</v>
       </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G21" si="2">2*PI()*B14</f>
+      <c r="G14" s="31">
+        <f t="shared" ref="G14:G21" si="4">2*PI()*B14</f>
         <v>515.22119518872603</v>
       </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H21" si="3">2*PI()*C14</f>
+      <c r="H14" s="31">
+        <f t="shared" ref="H14:H21" si="5">2*PI()*C14</f>
         <v>5868.4950769057332</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K21" si="4">((4*$B$3*(2*$B$4+$B$3-2*$B$2)*$B$2*(H14-G14))/(($B$5-$B$2)^2*F14)*$C$3)^2</f>
+        <f t="shared" ref="K14:K21" si="6">((4*$B$3*(2*$B$4+$B$3-2*$B$2)*$B$2*(H14-G14))/(($B$5-$B$2)^2*F14)*$C$3)^2</f>
         <v>53470955676534.445</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L21" si="5">((4*$B$6*$B$2*(G14-H14)/(($B$5-$B$2)^2*F14))*$C$4)^2</f>
+        <f t="shared" ref="L14:L21" si="7">((4*$B$6*$B$2*(G14-H14)/(($B$5-$B$2)^2*F14))*$C$4)^2</f>
         <v>18498077580.522442</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M21" si="6">((4*$B$6*$B$5*(H14-G14)/(($B$5-$B$2)^2*F14))*$C$2)^2</f>
+        <f t="shared" ref="M14:M21" si="8">((4*$B$6*$B$5*(H14-G14)/(($B$5-$B$2)^2*F14))*$C$2)^2</f>
         <v>1566712958479.9873</v>
       </c>
-      <c r="O14">
-        <f t="shared" ref="O14:O21" si="7">4*$B$2*$B$6*ABS(H14-G14)/(($B$5-$B$2)*F14)</f>
+      <c r="O14" s="31">
+        <f t="shared" ref="O14:O21" si="9">4*$B$2*$B$6*ABS(H14-G14)/(($B$5-$B$2)*F14)</f>
         <v>309712059.55000132</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P21" si="8">SQRT(K14+L14+M14)</f>
+        <f t="shared" ref="P14:P21" si="10">SQRT(K14+L14+M14)</f>
         <v>7419984.2798078051</v>
       </c>
-      <c r="Q14">
-        <f t="shared" ref="Q14:Q32" si="9">SQRT(P14^2+$O$37^2)</f>
+      <c r="Q14" s="31">
+        <f t="shared" ref="Q14:Q32" si="11">SQRT(P14^2+$O$37^2)</f>
         <v>11923104.335838627</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" ref="R14:R32" si="10">Q14/O14</f>
+        <f t="shared" ref="R14:R32" si="12">Q14/O14</f>
         <v>3.8497384806915169E-2</v>
       </c>
       <c r="S14" s="2">
         <f>(O14-$B$10)/P14</f>
         <v>1.3368763565976536</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="20">
         <v>2</v>
       </c>
-      <c r="V14">
-        <f t="shared" ref="V14:V32" si="11">Q14</f>
+      <c r="V14" s="35">
+        <f t="shared" ref="V14:V31" si="13">Q14</f>
         <v>11923104.335838627</v>
       </c>
-      <c r="W14">
-        <f>O15</f>
+      <c r="W14" s="35">
+        <f t="shared" si="0"/>
         <v>281130943.72591871</v>
       </c>
-      <c r="X14" s="3">
-        <f t="shared" ref="X14:AM31" si="12">ABS(($W14-X$12)/SQRT($V14^2+X$11^2))</f>
+      <c r="X14" s="27">
+        <f t="shared" si="1"/>
         <v>1.679964621018768</v>
       </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="12"/>
+      <c r="Y14" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="4">
-        <f t="shared" si="12"/>
+      <c r="Z14" s="28">
+        <f t="shared" si="1"/>
         <v>1.7027369298109192</v>
       </c>
-      <c r="AA14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AA14" s="28">
+        <f t="shared" si="1"/>
         <v>1.199452001231387</v>
       </c>
-      <c r="AB14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AB14" s="28">
+        <f t="shared" si="1"/>
         <v>0.18690654060704073</v>
       </c>
-      <c r="AC14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AC14" s="28">
+        <f t="shared" si="1"/>
         <v>1.0326846870086603</v>
       </c>
-      <c r="AD14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AD14" s="28">
+        <f t="shared" si="1"/>
         <v>5.2816649900239362E-2</v>
       </c>
-      <c r="AE14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AE14" s="28">
+        <f t="shared" si="1"/>
         <v>1.2205197684625306</v>
       </c>
-      <c r="AF14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AF14" s="28">
+        <f t="shared" si="1"/>
         <v>7.4761856892833489E-3</v>
       </c>
-      <c r="AG14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AG14" s="28">
+        <f t="shared" si="1"/>
         <v>0.60072645565215899</v>
       </c>
-      <c r="AH14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AH14" s="28">
+        <f t="shared" si="2"/>
         <v>0.3313731099999751</v>
       </c>
-      <c r="AI14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AI14" s="28">
+        <f t="shared" si="2"/>
         <v>1.5016230715941898</v>
       </c>
-      <c r="AJ14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AJ14" s="28">
+        <f t="shared" si="2"/>
         <v>1.3459290718341157</v>
       </c>
-      <c r="AK14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AK14" s="28">
+        <f t="shared" si="2"/>
         <v>1.0474685430032624</v>
       </c>
-      <c r="AL14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AL14" s="28">
+        <f t="shared" si="2"/>
         <v>0.95627527896353837</v>
       </c>
-      <c r="AM14" s="4">
-        <f t="shared" si="12"/>
+      <c r="AM14" s="28">
+        <f t="shared" si="2"/>
         <v>0.73968998721434709</v>
       </c>
-      <c r="AN14" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN14" s="28">
+        <f t="shared" si="2"/>
         <v>0.93901214763843077</v>
       </c>
-      <c r="AO14" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO14" s="28">
+        <f t="shared" si="2"/>
         <v>0.35841268338746607</v>
       </c>
-      <c r="AP14" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP14" s="28">
+        <f t="shared" si="2"/>
         <v>0.57218378369226219</v>
       </c>
-      <c r="AQ14" s="7">
-        <f t="shared" ref="AQ14:AQ31" si="13">$B$10</f>
+      <c r="AQ14" s="3">
+        <f t="shared" ref="AQ14:AQ31" si="14">$B$10</f>
         <v>299792458</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5315,142 +6111,142 @@
         <v>1.018E-2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4000000000000063E-4</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="G15" s="31">
+        <f t="shared" si="4"/>
         <v>691.15038378975453</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
+      <c r="H15" s="31">
+        <f t="shared" si="5"/>
         <v>5761.6809266836808</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44057415278536.391</v>
       </c>
       <c r="L15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15241498408.028471</v>
       </c>
       <c r="M15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1290893767666.634</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="7"/>
+      <c r="O15" s="31">
+        <f t="shared" si="9"/>
         <v>281130943.72591871</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6735246.8807469159</v>
       </c>
-      <c r="Q15">
-        <f t="shared" si="9"/>
+      <c r="Q15" s="31">
+        <f t="shared" si="11"/>
         <v>11509465.705900948</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0939875039589388E-2</v>
       </c>
       <c r="S15" s="2">
         <f>(O15-$B$10)/P15</f>
         <v>-2.7707246080951067</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="20">
         <v>3</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="11"/>
+      <c r="V15" s="33">
+        <f t="shared" si="13"/>
         <v>11509465.705900948</v>
       </c>
-      <c r="W15">
-        <f>O16</f>
+      <c r="W15" s="35">
+        <f t="shared" si="0"/>
         <v>309348547.74302012</v>
       </c>
-      <c r="X15" s="3">
-        <f t="shared" si="12"/>
+      <c r="X15" s="29">
+        <f t="shared" si="1"/>
         <v>2.1733803854776308E-2</v>
       </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y15" s="30">
+        <f t="shared" si="1"/>
         <v>1.7027369298109192</v>
       </c>
-      <c r="Z15" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z15" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA15" s="30">
+        <f t="shared" si="1"/>
         <v>0.48269275059911376</v>
       </c>
-      <c r="AB15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB15" s="30">
+        <f t="shared" si="1"/>
         <v>1.5216898041712552</v>
       </c>
-      <c r="AC15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC15" s="30">
+        <f t="shared" si="1"/>
         <v>0.67895065133373833</v>
       </c>
-      <c r="AD15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD15" s="30">
+        <f t="shared" si="1"/>
         <v>1.6614909335077928</v>
       </c>
-      <c r="AE15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE15" s="30">
+        <f t="shared" si="1"/>
         <v>0.49004804292200477</v>
       </c>
-      <c r="AF15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF15" s="30">
+        <f t="shared" si="1"/>
         <v>1.7042746529593882</v>
       </c>
-      <c r="AG15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG15" s="30">
+        <f t="shared" si="1"/>
         <v>1.1218570324062718</v>
       </c>
-      <c r="AH15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH15" s="30">
+        <f t="shared" si="2"/>
         <v>1.3856964029474172</v>
       </c>
-      <c r="AI15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI15" s="30">
+        <f t="shared" si="2"/>
         <v>0.19908163121182373</v>
       </c>
-      <c r="AJ15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ15" s="30">
+        <f t="shared" si="2"/>
         <v>0.33712826235060678</v>
       </c>
-      <c r="AK15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK15" s="30">
+        <f t="shared" si="2"/>
         <v>0.64332337256871164</v>
       </c>
-      <c r="AL15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL15" s="30">
+        <f t="shared" si="2"/>
         <v>0.74151546984297667</v>
       </c>
-      <c r="AM15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM15" s="30">
+        <f t="shared" si="2"/>
         <v>0.96363225732453994</v>
       </c>
-      <c r="AN15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN15" s="30">
+        <f t="shared" si="2"/>
         <v>0.76462289100693703</v>
       </c>
-      <c r="AO15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO15" s="30">
+        <f t="shared" si="2"/>
         <v>1.352050997756999</v>
       </c>
-      <c r="AP15" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP15" s="30">
+        <f t="shared" si="2"/>
         <v>1.1447604488235981</v>
       </c>
-      <c r="AQ15" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ15" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5467,39 +6263,39 @@
         <v>1.018E-2</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.299999999999993E-4</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
+      <c r="G16" s="31">
+        <f t="shared" si="4"/>
         <v>678.58401317539528</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
+      <c r="H16" s="31">
+        <f t="shared" si="5"/>
         <v>6025.574709585223</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>53345510662432.633</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18454680346.012875</v>
       </c>
       <c r="M16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1563037386822.7512</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
+      <c r="O16" s="31">
+        <f t="shared" si="9"/>
         <v>309348547.74302012</v>
       </c>
       <c r="P16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7411275.3780709971</v>
       </c>
-      <c r="Q16">
-        <f t="shared" si="9"/>
+      <c r="Q16" s="31">
+        <f t="shared" si="11"/>
         <v>11917686.563268071</v>
       </c>
       <c r="R16" s="2">
@@ -5507,102 +6303,102 @@
         <v>3.8525109137309575E-2</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16:S23" si="14">(O16-$B$10)/P16</f>
+        <f t="shared" ref="S16:S23" si="15">(O16-$B$10)/P16</f>
         <v>1.2893988221373271</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="20">
         <v>4</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="11"/>
+      <c r="V16" s="33">
+        <f t="shared" si="13"/>
         <v>11917686.563268071</v>
       </c>
-      <c r="W16">
-        <f>O17</f>
+      <c r="W16" s="35">
+        <f t="shared" si="0"/>
         <v>301351287.98938149</v>
       </c>
-      <c r="X16" s="3">
-        <f t="shared" si="12"/>
+      <c r="X16" s="27">
+        <f t="shared" si="1"/>
         <v>0.4915460812710884</v>
       </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y16" s="28">
+        <f t="shared" si="1"/>
         <v>1.199452001231387</v>
       </c>
-      <c r="Z16" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z16" s="28">
+        <f t="shared" si="1"/>
         <v>0.48269275059911376</v>
       </c>
-      <c r="AA16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA16" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB16" s="28">
+        <f t="shared" si="1"/>
         <v>1.0187390463438959</v>
       </c>
-      <c r="AC16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC16" s="28">
+        <f t="shared" si="1"/>
         <v>0.18526241066839558</v>
       </c>
-      <c r="AD16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD16" s="28">
+        <f t="shared" si="1"/>
         <v>1.1551345567907054</v>
       </c>
-      <c r="AE16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="28">
+        <f t="shared" si="1"/>
         <v>9.9678023285792701E-4</v>
       </c>
-      <c r="AF16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF16" s="28">
+        <f t="shared" si="1"/>
         <v>1.1981983452962452</v>
       </c>
-      <c r="AG16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG16" s="28">
+        <f t="shared" si="1"/>
         <v>0.61948700297431192</v>
       </c>
-      <c r="AH16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH16" s="28">
+        <f t="shared" si="2"/>
         <v>0.88178981300964354</v>
       </c>
-      <c r="AI16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI16" s="28">
+        <f t="shared" si="2"/>
         <v>0.28551174473062613</v>
       </c>
-      <c r="AJ16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ16" s="28">
+        <f t="shared" si="2"/>
         <v>0.14407879896452738</v>
       </c>
-      <c r="AK16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK16" s="28">
+        <f t="shared" si="2"/>
         <v>0.15618012146228838</v>
       </c>
-      <c r="AL16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL16" s="28">
+        <f t="shared" si="2"/>
         <v>0.25113417100093671</v>
       </c>
-      <c r="AM16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM16" s="28">
+        <f t="shared" si="2"/>
         <v>0.4689358575699577</v>
       </c>
-      <c r="AN16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN16" s="28">
+        <f t="shared" si="2"/>
         <v>0.27224052426744239</v>
       </c>
-      <c r="AO16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO16" s="28">
+        <f t="shared" si="2"/>
         <v>0.85055078628828007</v>
       </c>
-      <c r="AP16" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP16" s="28">
+        <f t="shared" si="2"/>
         <v>0.643803176183257</v>
       </c>
-      <c r="AQ16" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ16" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5619,142 +6415,142 @@
         <v>1.018E-2</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.299999999999993E-4</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="G17" s="31">
+        <f t="shared" si="4"/>
         <v>628.31853071795865</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
+      <c r="H17" s="31">
+        <f t="shared" si="5"/>
         <v>5837.0791503698356</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50622992916553.375</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17512835491.354244</v>
       </c>
       <c r="M17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1483266906228.3181</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="7"/>
+      <c r="O17" s="31">
+        <f t="shared" si="9"/>
         <v>301351287.98938149</v>
       </c>
       <c r="P17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7219679.5398599962</v>
       </c>
-      <c r="Q17">
-        <f t="shared" si="9"/>
-        <v>11799492.486923832</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9155274781303089E-2</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="14"/>
-        <v>0.21591401401892707</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
-      <c r="V17">
+      <c r="Q17" s="31">
         <f t="shared" si="11"/>
         <v>11799492.486923832</v>
       </c>
-      <c r="W17">
-        <f>O18</f>
+      <c r="R17" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9155274781303089E-2</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="15"/>
+        <v>0.21591401401892707</v>
+      </c>
+      <c r="U17" s="20">
+        <v>5</v>
+      </c>
+      <c r="V17" s="33">
+        <f t="shared" si="13"/>
+        <v>11799492.486923832</v>
+      </c>
+      <c r="W17" s="35">
+        <f t="shared" si="0"/>
         <v>284266233.06115103</v>
       </c>
-      <c r="X17" s="3">
-        <f t="shared" si="12"/>
+      <c r="X17" s="29">
+        <f t="shared" si="1"/>
         <v>1.5033105894491572</v>
       </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y17" s="30">
+        <f t="shared" si="1"/>
         <v>0.18690654060704073</v>
       </c>
-      <c r="Z17" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z17" s="30">
+        <f t="shared" si="1"/>
         <v>1.5216898041712552</v>
       </c>
-      <c r="AA17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA17" s="30">
+        <f t="shared" si="1"/>
         <v>1.0187390463438959</v>
       </c>
-      <c r="AB17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB17" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC17" s="30">
+        <f t="shared" si="1"/>
         <v>0.84836583341631278</v>
       </c>
-      <c r="AD17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD17" s="30">
+        <f t="shared" si="1"/>
         <v>0.13515111427339058</v>
       </c>
-      <c r="AE17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE17" s="30">
+        <f t="shared" si="1"/>
         <v>1.0369704500262744</v>
       </c>
-      <c r="AF17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF17" s="30">
+        <f t="shared" si="1"/>
         <v>0.18037073491412012</v>
       </c>
-      <c r="AG17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG17" s="30">
+        <f t="shared" si="1"/>
         <v>0.41376201781534838</v>
       </c>
-      <c r="AH17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH17" s="30">
+        <f t="shared" si="2"/>
         <v>0.14405855204821577</v>
       </c>
-      <c r="AI17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI17" s="30">
+        <f t="shared" si="2"/>
         <v>1.3200675547046719</v>
       </c>
-      <c r="AJ17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ17" s="30">
+        <f t="shared" si="2"/>
         <v>1.1656234505804306</v>
       </c>
-      <c r="AK17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK17" s="30">
+        <f t="shared" si="2"/>
         <v>0.86534817836249234</v>
       </c>
-      <c r="AL17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL17" s="30">
+        <f t="shared" si="2"/>
         <v>0.77311994742502099</v>
       </c>
-      <c r="AM17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM17" s="30">
+        <f t="shared" si="2"/>
         <v>0.55521744500811854</v>
       </c>
-      <c r="AN17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN17" s="30">
+        <f t="shared" si="2"/>
         <v>0.7551930302459855</v>
       </c>
-      <c r="AO17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO17" s="30">
+        <f t="shared" si="2"/>
         <v>0.17188887317198673</v>
       </c>
-      <c r="AP17" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP17" s="30">
+        <f t="shared" si="2"/>
         <v>0.38571094219395685</v>
       </c>
-      <c r="AQ17" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ17" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -5771,142 +6567,142 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6000000000000155E-4</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="G18" s="31">
+        <f t="shared" si="4"/>
         <v>741.41586624719116</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
+      <c r="H18" s="31">
+        <f t="shared" si="5"/>
         <v>6295.7516777939454</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45045588258415.641</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15583353162.885683</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1319847493913.1245</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="7"/>
+      <c r="O18" s="31">
+        <f t="shared" si="9"/>
         <v>284266233.06115103</v>
       </c>
       <c r="P18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6810361.1582273412</v>
       </c>
-      <c r="Q18">
-        <f t="shared" si="9"/>
-        <v>11553582.53513561</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0643527761702943E-2</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="14"/>
-        <v>-2.2797946508449591</v>
-      </c>
-      <c r="U18">
-        <v>6</v>
-      </c>
-      <c r="V18">
+      <c r="Q18" s="31">
         <f t="shared" si="11"/>
         <v>11553582.53513561</v>
       </c>
-      <c r="W18">
-        <f>O19</f>
+      <c r="R18" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0643527761702943E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="15"/>
+        <v>-2.2797946508449591</v>
+      </c>
+      <c r="U18" s="20">
+        <v>6</v>
+      </c>
+      <c r="V18" s="33">
+        <f t="shared" si="13"/>
+        <v>11553582.53513561</v>
+      </c>
+      <c r="W18" s="35">
+        <f t="shared" si="0"/>
         <v>298276174.59516788</v>
       </c>
-      <c r="X18" s="3">
-        <f t="shared" si="12"/>
+      <c r="X18" s="27">
+        <f t="shared" si="1"/>
         <v>0.68249369828474349</v>
       </c>
-      <c r="Y18" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y18" s="28">
+        <f t="shared" si="1"/>
         <v>1.0326846870086603</v>
       </c>
-      <c r="Z18" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z18" s="28">
+        <f t="shared" si="1"/>
         <v>0.67895065133373833</v>
       </c>
-      <c r="AA18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA18" s="28">
+        <f t="shared" si="1"/>
         <v>0.18526241066839558</v>
       </c>
-      <c r="AB18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB18" s="28">
+        <f t="shared" si="1"/>
         <v>0.84836583341631278</v>
       </c>
-      <c r="AC18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC18" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD18" s="28">
+        <f t="shared" si="1"/>
         <v>0.98658901036471913</v>
       </c>
-      <c r="AE18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE18" s="28">
+        <f t="shared" si="1"/>
         <v>0.18947533698203053</v>
       </c>
-      <c r="AF18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF18" s="28">
+        <f t="shared" si="1"/>
         <v>1.0306168535204436</v>
       </c>
-      <c r="AG18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG18" s="28">
+        <f t="shared" si="1"/>
         <v>0.44081034994255014</v>
       </c>
-      <c r="AH18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH18" s="28">
+        <f t="shared" si="2"/>
         <v>0.70826054742100331</v>
       </c>
-      <c r="AI18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI18" s="28">
+        <f t="shared" si="2"/>
         <v>0.4779613036603424</v>
       </c>
-      <c r="AJ18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ18" s="28">
+        <f t="shared" si="2"/>
         <v>0.33195524492530909</v>
       </c>
-      <c r="AK18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK18" s="28">
+        <f t="shared" si="2"/>
         <v>2.7324504682340461E-2</v>
       </c>
-      <c r="AL18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL18" s="28">
+        <f t="shared" si="2"/>
         <v>6.8530213625004638E-2</v>
       </c>
-      <c r="AM18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM18" s="28">
+        <f t="shared" si="2"/>
         <v>0.28955793801036556</v>
       </c>
-      <c r="AN18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN18" s="28">
+        <f t="shared" si="2"/>
         <v>8.9381560337646909E-2</v>
       </c>
-      <c r="AO18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO18" s="28">
+        <f t="shared" si="2"/>
         <v>0.67710324765002328</v>
       </c>
-      <c r="AP18" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP18" s="28">
+        <f t="shared" si="2"/>
         <v>0.46611638198922262</v>
       </c>
-      <c r="AQ18" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ18" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -5923,142 +6719,142 @@
         <v>1.031E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7000000000000054E-4</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
+      <c r="G19" s="31">
+        <f t="shared" si="4"/>
         <v>722.56631032565247</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
+      <c r="H19" s="31">
+        <f t="shared" si="5"/>
         <v>9016.3709158027068</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>49595108306181.703</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17157242646.118742</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1453149618842.7446</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="7"/>
+      <c r="O19" s="31">
+        <f t="shared" si="9"/>
         <v>298276174.59516788</v>
       </c>
       <c r="P19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7146006.9386805501</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="9"/>
-        <v>11754559.347690133</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9408307967084139E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <f t="shared" si="14"/>
-        <v>-0.21218610866785606</v>
-      </c>
-      <c r="U19">
-        <v>7</v>
-      </c>
-      <c r="V19">
+      <c r="Q19" s="31">
         <f t="shared" si="11"/>
         <v>11754559.347690133</v>
       </c>
-      <c r="W19">
-        <f>O20</f>
+      <c r="R19" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9408307967084139E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="15"/>
+        <v>-0.21218610866785606</v>
+      </c>
+      <c r="U19" s="20">
+        <v>7</v>
+      </c>
+      <c r="V19" s="33">
+        <f t="shared" si="13"/>
+        <v>11754559.347690133</v>
+      </c>
+      <c r="W19" s="35">
+        <f t="shared" si="0"/>
         <v>282015256.10252202</v>
       </c>
-      <c r="X19" s="3">
-        <f t="shared" si="12"/>
+      <c r="X19" s="29">
+        <f t="shared" si="1"/>
         <v>1.6393263928614175</v>
       </c>
-      <c r="Y19" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y19" s="30">
+        <f t="shared" si="1"/>
         <v>5.2816649900239362E-2</v>
       </c>
-      <c r="Z19" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z19" s="30">
+        <f t="shared" si="1"/>
         <v>1.6614909335077928</v>
       </c>
-      <c r="AA19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA19" s="30">
+        <f t="shared" si="1"/>
         <v>1.1551345567907054</v>
       </c>
-      <c r="AB19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB19" s="30">
+        <f t="shared" si="1"/>
         <v>0.13515111427339058</v>
       </c>
-      <c r="AC19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC19" s="30">
+        <f t="shared" si="1"/>
         <v>0.98658901036471913</v>
       </c>
-      <c r="AD19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD19" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE19" s="30">
+        <f t="shared" si="1"/>
         <v>1.1757503959000455</v>
       </c>
-      <c r="AF19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF19" s="30">
+        <f t="shared" si="1"/>
         <v>4.556476335642546E-2</v>
       </c>
-      <c r="AG19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG19" s="30">
+        <f t="shared" si="1"/>
         <v>0.551388571329407</v>
       </c>
-      <c r="AH19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH19" s="30">
+        <f t="shared" si="2"/>
         <v>0.2803460873866308</v>
       </c>
-      <c r="AI19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI19" s="30">
+        <f t="shared" si="2"/>
         <v>1.4590049845978665</v>
       </c>
-      <c r="AJ19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ19" s="30">
+        <f t="shared" si="2"/>
         <v>1.3025816002146646</v>
       </c>
-      <c r="AK19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK19" s="30">
+        <f t="shared" si="2"/>
         <v>1.0019389416806332</v>
       </c>
-      <c r="AL19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL19" s="30">
+        <f t="shared" si="2"/>
         <v>0.90996994865885195</v>
       </c>
-      <c r="AM19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM19" s="30">
+        <f t="shared" si="2"/>
         <v>0.69178551150566947</v>
       </c>
-      <c r="AN19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN19" s="30">
+        <f t="shared" si="2"/>
         <v>0.89245463817206527</v>
       </c>
-      <c r="AO19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO19" s="30">
+        <f t="shared" si="2"/>
         <v>0.30775107432840487</v>
       </c>
-      <c r="AP19" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP19" s="30">
+        <f t="shared" si="2"/>
         <v>0.52279597971456293</v>
       </c>
-      <c r="AQ19" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ19" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -6075,142 +6871,142 @@
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6000000000000155E-4</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
+      <c r="G20" s="31">
+        <f t="shared" si="4"/>
         <v>628.31853071795865</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
+      <c r="H20" s="31">
+        <f t="shared" si="5"/>
         <v>6138.6720451144556</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>44335021103692.289</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15337535107.308796</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1299027690805.2505</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="7"/>
+      <c r="O20" s="31">
+        <f t="shared" si="9"/>
         <v>282015256.10252202</v>
       </c>
       <c r="P20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6756432.9590106085</v>
       </c>
-      <c r="Q20">
-        <f t="shared" si="9"/>
-        <v>11521876.436601106</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0855507591449298E-2</v>
-      </c>
-      <c r="S20" s="2">
-        <f t="shared" si="14"/>
-        <v>-2.6311519710662865</v>
-      </c>
-      <c r="U20">
-        <v>8</v>
-      </c>
-      <c r="V20">
+      <c r="Q20" s="31">
         <f t="shared" si="11"/>
         <v>11521876.436601106</v>
       </c>
-      <c r="W20">
-        <f>O21</f>
+      <c r="R20" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0855507591449298E-2</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="15"/>
+        <v>-2.6311519710662865</v>
+      </c>
+      <c r="U20" s="20">
+        <v>8</v>
+      </c>
+      <c r="V20" s="33">
+        <f t="shared" si="13"/>
+        <v>11521876.436601106</v>
+      </c>
+      <c r="W20" s="35">
+        <f t="shared" si="0"/>
         <v>301367811.25333238</v>
       </c>
-      <c r="X20" s="3">
-        <f t="shared" si="12"/>
+      <c r="X20" s="27">
+        <f t="shared" si="1"/>
         <v>0.49863490966546525</v>
       </c>
-      <c r="Y20" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y20" s="28">
+        <f t="shared" si="1"/>
         <v>1.2205197684625306</v>
       </c>
-      <c r="Z20" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z20" s="28">
+        <f t="shared" si="1"/>
         <v>0.49004804292200477</v>
       </c>
-      <c r="AA20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA20" s="28">
+        <f t="shared" si="1"/>
         <v>9.9678023285792701E-4</v>
       </c>
-      <c r="AB20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB20" s="28">
+        <f t="shared" si="1"/>
         <v>1.0369704500262744</v>
       </c>
-      <c r="AC20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC20" s="28">
+        <f t="shared" si="1"/>
         <v>0.18947533698203053</v>
       </c>
-      <c r="AD20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD20" s="28">
+        <f t="shared" si="1"/>
         <v>1.1757503959000455</v>
       </c>
-      <c r="AE20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE20" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF20" s="28">
+        <f t="shared" si="1"/>
         <v>1.2194644348456296</v>
       </c>
-      <c r="AG20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG20" s="28">
+        <f t="shared" si="1"/>
         <v>0.63124178708621392</v>
       </c>
-      <c r="AH20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH20" s="28">
+        <f t="shared" si="2"/>
         <v>0.89790378168423168</v>
       </c>
-      <c r="AI20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI20" s="28">
+        <f t="shared" si="2"/>
         <v>0.28941825209541527</v>
       </c>
-      <c r="AJ20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ20" s="28">
+        <f t="shared" si="2"/>
         <v>0.14550205923154935</v>
       </c>
-      <c r="AK20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK20" s="28">
+        <f t="shared" si="2"/>
         <v>0.15981380479971294</v>
       </c>
-      <c r="AL20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL20" s="28">
+        <f t="shared" si="2"/>
         <v>0.25639910655004294</v>
       </c>
-      <c r="AM20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM20" s="28">
+        <f t="shared" si="2"/>
         <v>0.47791333680780868</v>
       </c>
-      <c r="AN20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN20" s="28">
+        <f t="shared" si="2"/>
         <v>0.27789709161833903</v>
       </c>
-      <c r="AO20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO20" s="28">
+        <f t="shared" si="2"/>
         <v>0.86602287100479447</v>
       </c>
-      <c r="AP20" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP20" s="28">
+        <f t="shared" si="2"/>
         <v>0.65589656819176223</v>
       </c>
-      <c r="AQ20" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ20" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6227,142 +7023,142 @@
         <v>1.0160000000000001E-2</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2000000000000144E-4</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
+      <c r="G21" s="31">
+        <f t="shared" si="4"/>
         <v>672.30082786821572</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
+      <c r="H21" s="31">
+        <f t="shared" si="5"/>
         <v>5654.8667764616275</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50628544444215.563</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17514756021.63253</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1483429567437.8972</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="7"/>
+      <c r="O21" s="31">
+        <f t="shared" si="9"/>
         <v>301367811.25333238</v>
       </c>
       <c r="P21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7220075.3990297839</v>
       </c>
-      <c r="Q21">
-        <f t="shared" si="9"/>
-        <v>11799734.702880995</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9153931714897172E-2</v>
-      </c>
-      <c r="S21" s="2">
-        <f t="shared" si="14"/>
-        <v>0.21819069279305153</v>
-      </c>
-      <c r="U21">
-        <v>9</v>
-      </c>
-      <c r="V21">
+      <c r="Q21" s="31">
         <f t="shared" si="11"/>
         <v>11799734.702880995</v>
       </c>
-      <c r="W21">
-        <f>O22</f>
+      <c r="R21" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9153931714897172E-2</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="15"/>
+        <v>0.21819069279305153</v>
+      </c>
+      <c r="U21" s="20">
+        <v>9</v>
+      </c>
+      <c r="V21" s="33">
+        <f t="shared" si="13"/>
+        <v>11799734.702880995</v>
+      </c>
+      <c r="W21" s="35">
+        <f t="shared" si="0"/>
         <v>281256355.29932851</v>
       </c>
-      <c r="X21" s="3">
-        <f t="shared" si="12"/>
+      <c r="X21" s="29">
+        <f t="shared" si="1"/>
         <v>1.6811139864396913</v>
       </c>
-      <c r="Y21" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y21" s="30">
+        <f t="shared" si="1"/>
         <v>7.4761856892833489E-3</v>
       </c>
-      <c r="Z21" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z21" s="30">
+        <f t="shared" si="1"/>
         <v>1.7042746529593882</v>
       </c>
-      <c r="AA21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA21" s="30">
+        <f t="shared" si="1"/>
         <v>1.1981983452962452</v>
       </c>
-      <c r="AB21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB21" s="30">
+        <f t="shared" si="1"/>
         <v>0.18037073491412012</v>
       </c>
-      <c r="AC21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC21" s="30">
+        <f t="shared" si="1"/>
         <v>1.0306168535204436</v>
       </c>
-      <c r="AD21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD21" s="30">
+        <f t="shared" si="1"/>
         <v>4.556476335642546E-2</v>
       </c>
-      <c r="AE21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE21" s="30">
+        <f t="shared" si="1"/>
         <v>1.2194644348456296</v>
       </c>
-      <c r="AF21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF21" s="30">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG21" s="30">
+        <f t="shared" si="1"/>
         <v>0.59634491995440064</v>
       </c>
-      <c r="AH21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH21" s="30">
+        <f t="shared" si="2"/>
         <v>0.32556894361045335</v>
       </c>
-      <c r="AI21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI21" s="30">
+        <f t="shared" si="2"/>
         <v>1.5020526615097576</v>
       </c>
-      <c r="AJ21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ21" s="30">
+        <f t="shared" si="2"/>
         <v>1.3454487692892505</v>
       </c>
-      <c r="AK21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK21" s="30">
+        <f t="shared" si="2"/>
         <v>1.0454380700682087</v>
       </c>
-      <c r="AL21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL21" s="30">
+        <f t="shared" si="2"/>
         <v>0.95377605066939442</v>
       </c>
-      <c r="AM21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM21" s="30">
+        <f t="shared" si="2"/>
         <v>0.73605210437863955</v>
       </c>
-      <c r="AN21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN21" s="30">
+        <f t="shared" si="2"/>
         <v>0.93642965275926271</v>
       </c>
-      <c r="AO21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO21" s="30">
+        <f t="shared" si="2"/>
         <v>0.3527652154929885</v>
       </c>
-      <c r="AP21" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP21" s="30">
+        <f t="shared" si="2"/>
         <v>0.56765417525865669</v>
       </c>
-      <c r="AQ21" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ21" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -6379,142 +7175,142 @@
         <v>1.0189999999999999E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F32" si="15">ABS(E22-D22)</f>
+        <f t="shared" ref="F22:F32" si="16">ABS(E22-D22)</f>
         <v>2.5000000000000022E-4</v>
       </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G32" si="16">2*PI()*B22</f>
+      <c r="G22" s="31">
+        <f t="shared" ref="G22:G32" si="17">2*PI()*B22</f>
         <v>684.86719848257485</v>
       </c>
-      <c r="H22">
-        <f t="shared" ref="H22:H32" si="17">2*PI()*C22</f>
+      <c r="H22" s="31">
+        <f t="shared" ref="H22:H32" si="18">2*PI()*C22</f>
         <v>5969.0260418206071</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K32" si="18">((4*$B$3*(2*$B$4+$B$3-2*$B$2)*$B$2*(H22-G22))/(($B$5-$B$2)^2*F22)*$C$3)^2</f>
+        <f t="shared" ref="K22:K32" si="19">((4*$B$3*(2*$B$4+$B$3-2*$B$2)*$B$2*(H22-G22))/(($B$5-$B$2)^2*F22)*$C$3)^2</f>
         <v>44096731777163.734</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L32" si="19">((4*$B$6*$B$2*(G22-H22)/(($B$5-$B$2)^2*F22))*$C$4)^2</f>
+        <f t="shared" ref="L22:L32" si="20">((4*$B$6*$B$2*(G22-H22)/(($B$5-$B$2)^2*F22))*$C$4)^2</f>
         <v>15255099804.012539</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M32" si="20">((4*$B$6*$B$5*(H22-G22)/(($B$5-$B$2)^2*F22))*$C$2)^2</f>
+        <f t="shared" ref="M22:M32" si="21">((4*$B$6*$B$5*(H22-G22)/(($B$5-$B$2)^2*F22))*$C$2)^2</f>
         <v>1292045751338.9319</v>
       </c>
-      <c r="O22">
-        <f t="shared" ref="O22:O32" si="21">4*$B$2*$B$6*ABS(H22-G22)/(($B$5-$B$2)*F22)</f>
+      <c r="O22" s="31">
+        <f t="shared" ref="O22:O32" si="22">4*$B$2*$B$6*ABS(H22-G22)/(($B$5-$B$2)*F22)</f>
         <v>281256355.29932851</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P32" si="22">SQRT(K22+L22+M22)</f>
+        <f t="shared" ref="P22:P32" si="23">SQRT(K22+L22+M22)</f>
         <v>6738251.4518461451</v>
       </c>
-      <c r="Q22">
-        <f t="shared" si="9"/>
-        <v>11511224.214609219</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0927872375926724E-2</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" si="14"/>
-        <v>-2.750877261428553</v>
-      </c>
-      <c r="U22">
-        <v>10</v>
-      </c>
-      <c r="V22">
+      <c r="Q22" s="31">
         <f t="shared" si="11"/>
         <v>11511224.214609219</v>
       </c>
-      <c r="W22">
-        <f>O23</f>
+      <c r="R22" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0927872375926724E-2</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="15"/>
+        <v>-2.750877261428553</v>
+      </c>
+      <c r="U22" s="20">
+        <v>10</v>
+      </c>
+      <c r="V22" s="33">
+        <f t="shared" si="13"/>
+        <v>11511224.214609219</v>
+      </c>
+      <c r="W22" s="35">
+        <f t="shared" si="0"/>
         <v>291086862.49218649</v>
       </c>
-      <c r="X22" s="3">
-        <f t="shared" si="12"/>
+      <c r="X22" s="27">
+        <f t="shared" si="1"/>
         <v>1.1134909129708639</v>
       </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y22" s="28">
+        <f t="shared" si="1"/>
         <v>0.60072645565215899</v>
       </c>
-      <c r="Z22" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z22" s="28">
+        <f t="shared" si="1"/>
         <v>1.1218570324062718</v>
       </c>
-      <c r="AA22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA22" s="28">
+        <f t="shared" si="1"/>
         <v>0.61948700297431192</v>
       </c>
-      <c r="AB22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB22" s="28">
+        <f t="shared" si="1"/>
         <v>0.41376201781534838</v>
       </c>
-      <c r="AC22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC22" s="28">
+        <f t="shared" si="1"/>
         <v>0.44081034994255014</v>
       </c>
-      <c r="AD22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD22" s="28">
+        <f t="shared" si="1"/>
         <v>0.551388571329407</v>
       </c>
-      <c r="AE22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE22" s="28">
+        <f t="shared" si="1"/>
         <v>0.63124178708621392</v>
       </c>
-      <c r="AF22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF22" s="28">
+        <f t="shared" si="1"/>
         <v>0.59634491995440064</v>
       </c>
-      <c r="AG22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG22" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH22" s="28">
+        <f t="shared" si="2"/>
         <v>0.27059341997996722</v>
       </c>
-      <c r="AI22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI22" s="28">
+        <f t="shared" si="2"/>
         <v>0.91899884832534084</v>
       </c>
-      <c r="AJ22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ22" s="28">
+        <f t="shared" si="2"/>
         <v>0.76735356781796971</v>
       </c>
-      <c r="AK22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK22" s="28">
+        <f t="shared" si="2"/>
         <v>0.46282706872458873</v>
       </c>
-      <c r="AL22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL22" s="28">
+        <f t="shared" si="2"/>
         <v>0.36820067767712533</v>
       </c>
-      <c r="AM22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM22" s="28">
+        <f t="shared" si="2"/>
         <v>0.14721056963700457</v>
       </c>
-      <c r="AN22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN22" s="28">
+        <f t="shared" si="2"/>
         <v>0.34874911468888564</v>
       </c>
-      <c r="AO22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO22" s="28">
+        <f t="shared" si="2"/>
         <v>0.2409415308936339</v>
       </c>
-      <c r="AP22" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP22" s="28">
+        <f t="shared" si="2"/>
         <v>2.6933497411452026E-2</v>
       </c>
-      <c r="AQ22" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ22" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -6531,142 +7327,142 @@
         <v>1.0330000000000001E-2</v>
       </c>
       <c r="F23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8000000000000013E-4</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="16"/>
+      <c r="G23" s="31">
+        <f t="shared" si="17"/>
         <v>747.69905155437073</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="17"/>
+      <c r="H23" s="31">
+        <f t="shared" si="18"/>
         <v>9060.3532129529631</v>
       </c>
       <c r="K23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47233151527119.313</v>
       </c>
       <c r="L23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16340132512.437119</v>
       </c>
       <c r="M23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1383943668690.8069</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="21"/>
+      <c r="O23" s="31">
+        <f t="shared" si="22"/>
         <v>291086862.49218649</v>
       </c>
       <c r="P23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6973767.6566059003</v>
       </c>
-      <c r="Q23">
-        <f t="shared" si="9"/>
-        <v>11650651.725076219</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0024656644849277E-2</v>
-      </c>
-      <c r="S23" s="2">
-        <f t="shared" si="14"/>
-        <v>-1.248334607128349</v>
-      </c>
-      <c r="U23">
-        <v>11</v>
-      </c>
-      <c r="V23">
+      <c r="Q23" s="31">
         <f t="shared" si="11"/>
         <v>11650651.725076219</v>
       </c>
-      <c r="W23">
-        <f>O24</f>
+      <c r="R23" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0024656644849277E-2</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="15"/>
+        <v>-1.248334607128349</v>
+      </c>
+      <c r="U23" s="20">
+        <v>11</v>
+      </c>
+      <c r="V23" s="33">
+        <f t="shared" si="13"/>
+        <v>11650651.725076219</v>
+      </c>
+      <c r="W23" s="35">
+        <f t="shared" si="0"/>
         <v>286655024.935615</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" si="12"/>
+      <c r="X23" s="29">
+        <f t="shared" ref="X23:AG31" si="24">ABS(($W23-X$12)/SQRT($V23^2+X$11^2))</f>
         <v>1.3705573716165684</v>
       </c>
-      <c r="Y23" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y23" s="30">
+        <f t="shared" si="24"/>
         <v>0.3313731099999751</v>
       </c>
-      <c r="Z23" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z23" s="30">
+        <f t="shared" si="24"/>
         <v>1.3856964029474172</v>
       </c>
-      <c r="AA23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA23" s="30">
+        <f t="shared" si="24"/>
         <v>0.88178981300964354</v>
       </c>
-      <c r="AB23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB23" s="30">
+        <f t="shared" si="24"/>
         <v>0.14405855204821577</v>
       </c>
-      <c r="AC23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC23" s="30">
+        <f t="shared" si="24"/>
         <v>0.70826054742100331</v>
       </c>
-      <c r="AD23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD23" s="30">
+        <f t="shared" si="24"/>
         <v>0.2803460873866308</v>
       </c>
-      <c r="AE23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE23" s="30">
+        <f t="shared" si="24"/>
         <v>0.89790378168423168</v>
       </c>
-      <c r="AF23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF23" s="30">
+        <f t="shared" si="24"/>
         <v>0.32556894361045335</v>
       </c>
-      <c r="AG23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG23" s="30">
+        <f t="shared" si="24"/>
         <v>0.27059341997996722</v>
       </c>
-      <c r="AH23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH23" s="30">
+        <f t="shared" ref="AH23:AP31" si="25">ABS(($W23-AH$12)/SQRT($V23^2+AH$11^2))</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI23" s="30">
+        <f t="shared" si="25"/>
         <v>1.1831966509302776</v>
       </c>
-      <c r="AJ23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ23" s="30">
+        <f t="shared" si="25"/>
         <v>1.0293271492530802</v>
       </c>
-      <c r="AK23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK23" s="30">
+        <f t="shared" si="25"/>
         <v>0.72696788122786971</v>
       </c>
-      <c r="AL23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL23" s="30">
+        <f t="shared" si="25"/>
         <v>0.63373161749155105</v>
       </c>
-      <c r="AM23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM23" s="30">
+        <f t="shared" si="25"/>
         <v>0.41431026959067696</v>
       </c>
-      <c r="AN23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN23" s="30">
+        <f t="shared" si="25"/>
         <v>0.61525255909744248</v>
       </c>
-      <c r="AO23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO23" s="30">
+        <f t="shared" si="25"/>
         <v>2.8513610945952304E-2</v>
       </c>
-      <c r="AP23" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP23" s="30">
+        <f t="shared" si="25"/>
         <v>0.24286062159030564</v>
       </c>
-      <c r="AQ23" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ23" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -6683,142 +7479,142 @@
         <v>1.0325000000000001E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8500000000000166E-4</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="16"/>
+      <c r="G24" s="31">
+        <f t="shared" si="17"/>
         <v>753.98223686155029</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="17"/>
+      <c r="H24" s="31">
+        <f t="shared" si="18"/>
         <v>9047.7868423386044</v>
       </c>
       <c r="K24">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45805837929608.625</v>
       </c>
       <c r="L24">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15846358699.636656</v>
       </c>
       <c r="M24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1342123007721.8467</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="21"/>
+      <c r="O24" s="31">
+        <f t="shared" si="22"/>
         <v>286655024.935615</v>
       </c>
       <c r="P24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6867591.0839267429</v>
       </c>
-      <c r="Q24">
-        <f t="shared" si="9"/>
-        <v>11587409.442439195</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0422837328743216E-2</v>
-      </c>
-      <c r="S24" s="2">
-        <f t="shared" ref="S24:S32" si="23">(O24-$B$10)/P24</f>
-        <v>-1.9129608772328495</v>
-      </c>
-      <c r="U24">
-        <v>12</v>
-      </c>
-      <c r="V24">
+      <c r="Q24" s="31">
         <f t="shared" si="11"/>
         <v>11587409.442439195</v>
       </c>
-      <c r="W24">
-        <f>O25</f>
+      <c r="R24" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0422837328743216E-2</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" ref="S24:S32" si="26">(O24-$B$10)/P24</f>
+        <v>-1.9129608772328495</v>
+      </c>
+      <c r="U24" s="20">
+        <v>12</v>
+      </c>
+      <c r="V24" s="33">
+        <f t="shared" si="13"/>
+        <v>11587409.442439195</v>
+      </c>
+      <c r="W24" s="35">
+        <f t="shared" si="0"/>
         <v>306097136.58055419</v>
       </c>
-      <c r="X24" s="3">
-        <f t="shared" si="12"/>
+      <c r="X24" s="27">
+        <f t="shared" si="24"/>
         <v>0.21543851079980614</v>
       </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y24" s="28">
+        <f t="shared" si="24"/>
         <v>1.5016230715941898</v>
       </c>
-      <c r="Z24" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z24" s="28">
+        <f t="shared" si="24"/>
         <v>0.19908163121182373</v>
       </c>
-      <c r="AA24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA24" s="28">
+        <f t="shared" si="24"/>
         <v>0.28551174473062613</v>
       </c>
-      <c r="AB24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB24" s="28">
+        <f t="shared" si="24"/>
         <v>1.3200675547046719</v>
       </c>
-      <c r="AC24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC24" s="28">
+        <f t="shared" si="24"/>
         <v>0.4779613036603424</v>
       </c>
-      <c r="AD24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD24" s="28">
+        <f t="shared" si="24"/>
         <v>1.4590049845978665</v>
       </c>
-      <c r="AE24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE24" s="28">
+        <f t="shared" si="24"/>
         <v>0.28941825209541527</v>
       </c>
-      <c r="AF24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF24" s="28">
+        <f t="shared" si="24"/>
         <v>1.5020526615097576</v>
       </c>
-      <c r="AG24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG24" s="28">
+        <f t="shared" si="24"/>
         <v>0.91899884832534084</v>
       </c>
-      <c r="AH24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH24" s="28">
+        <f t="shared" si="25"/>
         <v>1.1831966509302776</v>
       </c>
-      <c r="AI24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI24" s="28">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ24" s="28">
+        <f t="shared" si="25"/>
         <v>0.14000982117100144</v>
       </c>
-      <c r="AK24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK24" s="28">
+        <f t="shared" si="25"/>
         <v>0.44490512726879011</v>
       </c>
-      <c r="AL24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL24" s="28">
+        <f t="shared" si="25"/>
         <v>0.54213149711338449</v>
       </c>
-      <c r="AM24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM24" s="28">
+        <f t="shared" si="25"/>
         <v>0.7633115624389073</v>
       </c>
-      <c r="AN24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN24" s="28">
+        <f t="shared" si="25"/>
         <v>0.56450166279334313</v>
       </c>
-      <c r="AO24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO24" s="28">
+        <f t="shared" si="25"/>
         <v>1.1503992363397564</v>
       </c>
-      <c r="AP24" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP24" s="28">
+        <f t="shared" si="25"/>
         <v>0.94256315092881859</v>
       </c>
-      <c r="AQ24" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ24" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13</v>
       </c>
@@ -6835,142 +7631,142 @@
         <v>1.03E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.6000000000000094E-4</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="16"/>
+      <c r="G25" s="31">
+        <f t="shared" si="17"/>
         <v>640.88490133231778</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="17"/>
+      <c r="H25" s="31">
+        <f t="shared" si="18"/>
         <v>8922.1231361950122</v>
       </c>
       <c r="K25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52230026684323.18</v>
       </c>
       <c r="L25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18068782826.400112</v>
       </c>
       <c r="M25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1530353415096.9968</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="21"/>
+      <c r="O25" s="31">
+        <f t="shared" si="22"/>
         <v>306097136.58055419</v>
       </c>
       <c r="P25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7333379.0903134542</v>
       </c>
-      <c r="Q25">
-        <f t="shared" si="9"/>
-        <v>11869401.803500693</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8776585550897753E-2</v>
-      </c>
-      <c r="S25" s="2">
-        <f t="shared" si="23"/>
-        <v>0.85972353302748783</v>
-      </c>
-      <c r="U25">
-        <v>13</v>
-      </c>
-      <c r="V25">
+      <c r="Q25" s="31">
         <f t="shared" si="11"/>
         <v>11869401.803500693</v>
       </c>
-      <c r="W25">
-        <f>O26</f>
+      <c r="R25" s="2">
+        <f t="shared" si="12"/>
+        <v>3.8776585550897753E-2</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="26"/>
+        <v>0.85972353302748783</v>
+      </c>
+      <c r="U25" s="20">
+        <v>13</v>
+      </c>
+      <c r="V25" s="33">
+        <f t="shared" si="13"/>
+        <v>11869401.803500693</v>
+      </c>
+      <c r="W25" s="35">
+        <f t="shared" si="0"/>
         <v>303774700.03593844</v>
       </c>
-      <c r="X25" s="3">
-        <f t="shared" si="12"/>
+      <c r="X25" s="29">
+        <f t="shared" si="24"/>
         <v>0.34976392267562206</v>
       </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y25" s="30">
+        <f t="shared" si="24"/>
         <v>1.3459290718341157</v>
       </c>
-      <c r="Z25" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z25" s="30">
+        <f t="shared" si="24"/>
         <v>0.33712826235060678</v>
       </c>
-      <c r="AA25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA25" s="30">
+        <f t="shared" si="24"/>
         <v>0.14407879896452738</v>
       </c>
-      <c r="AB25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB25" s="30">
+        <f t="shared" si="24"/>
         <v>1.1656234505804306</v>
       </c>
-      <c r="AC25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC25" s="30">
+        <f t="shared" si="24"/>
         <v>0.33195524492530909</v>
       </c>
-      <c r="AD25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD25" s="30">
+        <f t="shared" si="24"/>
         <v>1.3025816002146646</v>
       </c>
-      <c r="AE25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE25" s="30">
+        <f t="shared" si="24"/>
         <v>0.14550205923154935</v>
       </c>
-      <c r="AF25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF25" s="30">
+        <f t="shared" si="24"/>
         <v>1.3454487692892505</v>
       </c>
-      <c r="AG25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG25" s="30">
+        <f t="shared" si="24"/>
         <v>0.76735356781796971</v>
       </c>
-      <c r="AH25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH25" s="30">
+        <f t="shared" si="25"/>
         <v>1.0293271492530802</v>
       </c>
-      <c r="AI25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI25" s="30">
+        <f t="shared" si="25"/>
         <v>0.14000982117100144</v>
       </c>
-      <c r="AJ25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ25" s="30">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AK25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK25" s="30">
+        <f t="shared" si="25"/>
         <v>0.30107991371832227</v>
       </c>
-      <c r="AL25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL25" s="30">
+        <f t="shared" si="25"/>
         <v>0.39668221015024463</v>
       </c>
-      <c r="AM25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM25" s="30">
+        <f t="shared" si="25"/>
         <v>0.61507399319221778</v>
       </c>
-      <c r="AN25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN25" s="30">
+        <f t="shared" si="25"/>
         <v>0.41829865704495672</v>
       </c>
-      <c r="AO25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO25" s="30">
+        <f t="shared" si="25"/>
         <v>0.99750538117094401</v>
       </c>
-      <c r="AP25" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP25" s="30">
+        <f t="shared" si="25"/>
         <v>0.79120072479746317</v>
       </c>
-      <c r="AQ25" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ25" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>14</v>
       </c>
@@ -6987,142 +7783,142 @@
         <v>1.031E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5999999999999921E-4</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="16"/>
+      <c r="G26" s="31">
+        <f t="shared" si="17"/>
         <v>797.96453401180747</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="17"/>
+      <c r="H26" s="31">
+        <f t="shared" si="18"/>
         <v>9016.3709158027068</v>
       </c>
       <c r="K26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>51440468483106.977</v>
       </c>
       <c r="L26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17795638113.057266</v>
       </c>
       <c r="M26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1507219153708.3901</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="21"/>
+      <c r="O26" s="31">
+        <f t="shared" si="22"/>
         <v>303774700.03593844</v>
       </c>
       <c r="P26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7277738.8847724143</v>
       </c>
-      <c r="Q26">
-        <f t="shared" si="9"/>
-        <v>11835105.980329342</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="10"/>
-        <v>3.8960143747748498E-2</v>
-      </c>
-      <c r="S26" s="2">
-        <f t="shared" si="23"/>
-        <v>0.54718121919305052</v>
-      </c>
-      <c r="U26">
-        <v>14</v>
-      </c>
-      <c r="V26">
+      <c r="Q26" s="31">
         <f t="shared" si="11"/>
         <v>11835105.980329342</v>
       </c>
-      <c r="W26">
-        <f>O27</f>
+      <c r="R26" s="2">
+        <f t="shared" si="12"/>
+        <v>3.8960143747748498E-2</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="26"/>
+        <v>0.54718121919305052</v>
+      </c>
+      <c r="U26" s="20">
+        <v>14</v>
+      </c>
+      <c r="V26" s="33">
+        <f t="shared" si="13"/>
+        <v>11835105.980329342</v>
+      </c>
+      <c r="W26" s="35">
+        <f t="shared" si="0"/>
         <v>298728108.19303924</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" si="12"/>
+      <c r="X26" s="27">
+        <f t="shared" si="24"/>
         <v>0.64796828401239914</v>
       </c>
-      <c r="Y26" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y26" s="28">
+        <f t="shared" si="24"/>
         <v>1.0474685430032624</v>
       </c>
-      <c r="Z26" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z26" s="28">
+        <f t="shared" si="24"/>
         <v>0.64332337256871164</v>
       </c>
-      <c r="AA26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA26" s="28">
+        <f t="shared" si="24"/>
         <v>0.15618012146228838</v>
       </c>
-      <c r="AB26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB26" s="28">
+        <f t="shared" si="24"/>
         <v>0.86534817836249234</v>
       </c>
-      <c r="AC26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC26" s="28">
+        <f t="shared" si="24"/>
         <v>2.7324504682340461E-2</v>
       </c>
-      <c r="AD26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD26" s="28">
+        <f t="shared" si="24"/>
         <v>1.0019389416806332</v>
       </c>
-      <c r="AE26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE26" s="28">
+        <f t="shared" si="24"/>
         <v>0.15981380479971294</v>
       </c>
-      <c r="AF26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF26" s="28">
+        <f t="shared" si="24"/>
         <v>1.0454380700682087</v>
       </c>
-      <c r="AG26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG26" s="28">
+        <f t="shared" si="24"/>
         <v>0.46282706872458873</v>
       </c>
-      <c r="AH26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH26" s="28">
+        <f t="shared" si="25"/>
         <v>0.72696788122786971</v>
       </c>
-      <c r="AI26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI26" s="28">
+        <f t="shared" si="25"/>
         <v>0.44490512726879011</v>
       </c>
-      <c r="AJ26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ26" s="28">
+        <f t="shared" si="25"/>
         <v>0.30107991371832227</v>
       </c>
-      <c r="AK26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK26" s="28">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AL26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL26" s="28">
+        <f t="shared" si="25"/>
         <v>9.4800916323051362E-2</v>
       </c>
-      <c r="AM26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM26" s="28">
+        <f t="shared" si="25"/>
         <v>0.31321878069286097</v>
       </c>
-      <c r="AN26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN26" s="28">
+        <f t="shared" si="25"/>
         <v>0.11548409166137223</v>
       </c>
-      <c r="AO26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO26" s="28">
+        <f t="shared" si="25"/>
         <v>0.69614686702501871</v>
       </c>
-      <c r="AP26" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP26" s="28">
+        <f t="shared" si="25"/>
         <v>0.48776968682317379</v>
       </c>
-      <c r="AQ26" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ26" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -7139,142 +7935,142 @@
         <v>1.031E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.7000000000000054E-4</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="16"/>
+      <c r="G27" s="31">
+        <f t="shared" si="17"/>
         <v>716.28312501847279</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="17"/>
+      <c r="H27" s="31">
+        <f t="shared" si="18"/>
         <v>9022.6541011098852</v>
       </c>
       <c r="K27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49745510367872.359</v>
       </c>
       <c r="L27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17209273678.110291</v>
       </c>
       <c r="M27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1457556438508.7019</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="21"/>
+      <c r="O27" s="31">
+        <f t="shared" si="22"/>
         <v>298728108.19303924</v>
       </c>
       <c r="P27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7156834.2219209727</v>
       </c>
-      <c r="Q27">
-        <f t="shared" si="9"/>
-        <v>11761144.772969939</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9370733621657869E-2</v>
-      </c>
-      <c r="S27" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.14871796299273204</v>
-      </c>
-      <c r="U27">
-        <v>15</v>
-      </c>
-      <c r="V27">
+      <c r="Q27" s="31">
         <f t="shared" si="11"/>
         <v>11761144.772969939</v>
       </c>
-      <c r="W27">
-        <f>O28</f>
+      <c r="R27" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9370733621657869E-2</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.14871796299273204</v>
+      </c>
+      <c r="U27" s="20">
+        <v>15</v>
+      </c>
+      <c r="V27" s="33">
+        <f t="shared" si="13"/>
+        <v>11761144.772969939</v>
+      </c>
+      <c r="W27" s="35">
+        <f t="shared" si="0"/>
         <v>297146340.60049045</v>
       </c>
-      <c r="X27" s="3">
-        <f t="shared" si="12"/>
+      <c r="X27" s="29">
+        <f t="shared" si="24"/>
         <v>0.7435417336614889</v>
       </c>
-      <c r="Y27" s="4">
-        <f t="shared" si="0"/>
+      <c r="Y27" s="30">
+        <f t="shared" si="24"/>
         <v>0.95627527896353837</v>
       </c>
-      <c r="Z27" s="4">
-        <f t="shared" si="0"/>
+      <c r="Z27" s="30">
+        <f t="shared" si="24"/>
         <v>0.74151546984297667</v>
       </c>
-      <c r="AA27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AA27" s="30">
+        <f t="shared" si="24"/>
         <v>0.25113417100093671</v>
       </c>
-      <c r="AB27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AB27" s="30">
+        <f t="shared" si="24"/>
         <v>0.77311994742502099</v>
       </c>
-      <c r="AC27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AC27" s="30">
+        <f t="shared" si="24"/>
         <v>6.8530213625004638E-2</v>
       </c>
-      <c r="AD27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AD27" s="30">
+        <f t="shared" si="24"/>
         <v>0.90996994865885195</v>
       </c>
-      <c r="AE27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AE27" s="30">
+        <f t="shared" si="24"/>
         <v>0.25639910655004294</v>
       </c>
-      <c r="AF27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AF27" s="30">
+        <f t="shared" si="24"/>
         <v>0.95377605066939442</v>
       </c>
-      <c r="AG27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AG27" s="30">
+        <f t="shared" si="24"/>
         <v>0.36820067767712533</v>
       </c>
-      <c r="AH27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AH27" s="30">
+        <f t="shared" si="25"/>
         <v>0.63373161749155105</v>
       </c>
-      <c r="AI27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AI27" s="30">
+        <f t="shared" si="25"/>
         <v>0.54213149711338449</v>
       </c>
-      <c r="AJ27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AJ27" s="30">
+        <f t="shared" si="25"/>
         <v>0.39668221015024463</v>
       </c>
-      <c r="AK27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AK27" s="30">
+        <f t="shared" si="25"/>
         <v>9.4800916323051362E-2</v>
       </c>
-      <c r="AL27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AL27" s="30">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AM27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AM27" s="30">
+        <f t="shared" si="25"/>
         <v>0.21901452216390971</v>
       </c>
-      <c r="AN27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AN27" s="30">
+        <f t="shared" si="25"/>
         <v>2.0444139212504625E-2</v>
       </c>
-      <c r="AO27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AO27" s="30">
+        <f t="shared" si="25"/>
         <v>0.60313188931056538</v>
       </c>
-      <c r="AP27" s="4">
-        <f t="shared" si="0"/>
+      <c r="AP27" s="30">
+        <f t="shared" si="25"/>
         <v>0.39355055239702019</v>
       </c>
-      <c r="AQ27" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ27" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
@@ -7291,142 +8087,142 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="F28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.699999999999988E-4</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="16"/>
+      <c r="G28" s="31">
+        <f t="shared" si="17"/>
         <v>672.30082786821572</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="17"/>
+      <c r="H28" s="31">
+        <f t="shared" si="18"/>
         <v>8934.6895068093709</v>
       </c>
       <c r="K28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49220099380600.234</v>
       </c>
       <c r="L28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17027509707.72208</v>
       </c>
       <c r="M28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1442161759437.1948</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="21"/>
+      <c r="O28" s="31">
+        <f t="shared" si="22"/>
         <v>297146340.60049045</v>
       </c>
       <c r="P28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7118938.7305795196</v>
       </c>
-      <c r="Q28">
-        <f t="shared" si="9"/>
-        <v>11738123.314245939</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9502836516596043E-2</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.37170110597287598</v>
-      </c>
-      <c r="U28">
-        <v>16</v>
-      </c>
-      <c r="V28">
+      <c r="Q28" s="31">
         <f t="shared" si="11"/>
         <v>11738123.314245939</v>
       </c>
-      <c r="W28">
-        <f>O29</f>
+      <c r="R28" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9502836516596043E-2</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.37170110597287598</v>
+      </c>
+      <c r="U28" s="20">
+        <v>16</v>
+      </c>
+      <c r="V28" s="33">
+        <f t="shared" si="13"/>
+        <v>11738123.314245939</v>
+      </c>
+      <c r="W28" s="35">
+        <f t="shared" si="0"/>
         <v>293507085.83868241</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" si="12"/>
+      <c r="X28" s="27">
+        <f t="shared" si="24"/>
         <v>0.95979403502052718</v>
       </c>
-      <c r="Y28" s="4">
-        <f t="shared" ref="Y28:AP31" si="24">ABS(($W28-Y$12)/SQRT($V28^2+Y$11^2))</f>
+      <c r="Y28" s="28">
+        <f t="shared" si="24"/>
         <v>0.73968998721434709</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="28">
         <f t="shared" si="24"/>
         <v>0.96363225732453994</v>
       </c>
-      <c r="AA28" s="4">
+      <c r="AA28" s="28">
         <f t="shared" si="24"/>
         <v>0.4689358575699577</v>
       </c>
-      <c r="AB28" s="4">
+      <c r="AB28" s="28">
         <f t="shared" si="24"/>
         <v>0.55521744500811854</v>
       </c>
-      <c r="AC28" s="4">
+      <c r="AC28" s="28">
         <f t="shared" si="24"/>
         <v>0.28955793801036556</v>
       </c>
-      <c r="AD28" s="4">
+      <c r="AD28" s="28">
         <f t="shared" si="24"/>
         <v>0.69178551150566947</v>
       </c>
-      <c r="AE28" s="4">
+      <c r="AE28" s="28">
         <f t="shared" si="24"/>
         <v>0.47791333680780868</v>
       </c>
-      <c r="AF28" s="4">
+      <c r="AF28" s="28">
         <f t="shared" si="24"/>
         <v>0.73605210437863955</v>
       </c>
-      <c r="AG28" s="4">
+      <c r="AG28" s="28">
         <f t="shared" si="24"/>
         <v>0.14721056963700457</v>
       </c>
-      <c r="AH28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AH28" s="28">
+        <f t="shared" si="25"/>
         <v>0.41431026959067696</v>
       </c>
-      <c r="AI28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AI28" s="28">
+        <f t="shared" si="25"/>
         <v>0.7633115624389073</v>
       </c>
-      <c r="AJ28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AJ28" s="28">
+        <f t="shared" si="25"/>
         <v>0.61507399319221778</v>
       </c>
-      <c r="AK28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AK28" s="28">
+        <f t="shared" si="25"/>
         <v>0.31321878069286097</v>
       </c>
-      <c r="AL28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AL28" s="28">
+        <f t="shared" si="25"/>
         <v>0.21901452216390971</v>
       </c>
-      <c r="AM28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AM28" s="28">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AN28" s="28">
+        <f t="shared" si="25"/>
         <v>0.19925753409826669</v>
       </c>
-      <c r="AO28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AO28" s="28">
+        <f t="shared" si="25"/>
         <v>0.38444849725332286</v>
       </c>
-      <c r="AP28" s="4">
-        <f t="shared" si="24"/>
+      <c r="AP28" s="28">
+        <f t="shared" si="25"/>
         <v>0.17336306385269237</v>
       </c>
-      <c r="AQ28" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ28" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -7443,142 +8239,142 @@
         <v>1.0330000000000001E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8000000000000013E-4</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="16"/>
+      <c r="G29" s="31">
+        <f t="shared" si="17"/>
         <v>684.86719848257485</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="17"/>
+      <c r="H29" s="31">
+        <f t="shared" si="18"/>
         <v>9066.6363982601433</v>
       </c>
       <c r="K29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48021850862891.695</v>
       </c>
       <c r="L29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16612980104.484676</v>
       </c>
       <c r="M29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1407052765097.7266</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="21"/>
+      <c r="O29" s="31">
+        <f t="shared" si="22"/>
         <v>293507085.83868241</v>
       </c>
       <c r="P29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7031750.6076434413</v>
       </c>
-      <c r="Q29">
-        <f t="shared" si="9"/>
-        <v>11685451.078105323</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9813182174851781E-2</v>
-      </c>
-      <c r="S29" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.89385595593868916</v>
-      </c>
-      <c r="U29">
-        <v>17</v>
-      </c>
-      <c r="V29">
+      <c r="Q29" s="31">
         <f t="shared" si="11"/>
         <v>11685451.078105323</v>
       </c>
-      <c r="W29">
-        <f>O30</f>
+      <c r="R29" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9813182174851781E-2</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.89385595593868916</v>
+      </c>
+      <c r="U29" s="20">
+        <v>17</v>
+      </c>
+      <c r="V29" s="33">
+        <f t="shared" si="13"/>
+        <v>11685451.078105323</v>
+      </c>
+      <c r="W29" s="35">
+        <f t="shared" si="0"/>
         <v>296807390.40208662</v>
       </c>
-      <c r="X29" s="3">
-        <f t="shared" si="12"/>
+      <c r="X29" s="29">
+        <f t="shared" si="24"/>
         <v>0.76598181372720442</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y29" s="30">
         <f t="shared" si="24"/>
         <v>0.93901214763843077</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z29" s="30">
         <f t="shared" si="24"/>
         <v>0.76462289100693703</v>
       </c>
-      <c r="AA29" s="4">
+      <c r="AA29" s="30">
         <f t="shared" si="24"/>
         <v>0.27224052426744239</v>
       </c>
-      <c r="AB29" s="4">
+      <c r="AB29" s="30">
         <f t="shared" si="24"/>
         <v>0.7551930302459855</v>
       </c>
-      <c r="AC29" s="4">
+      <c r="AC29" s="30">
         <f t="shared" si="24"/>
         <v>8.9381560337646909E-2</v>
       </c>
-      <c r="AD29" s="4">
+      <c r="AD29" s="30">
         <f t="shared" si="24"/>
         <v>0.89245463817206527</v>
       </c>
-      <c r="AE29" s="4">
+      <c r="AE29" s="30">
         <f t="shared" si="24"/>
         <v>0.27789709161833903</v>
       </c>
-      <c r="AF29" s="4">
+      <c r="AF29" s="30">
         <f t="shared" si="24"/>
         <v>0.93642965275926271</v>
       </c>
-      <c r="AG29" s="4">
+      <c r="AG29" s="30">
         <f t="shared" si="24"/>
         <v>0.34874911468888564</v>
       </c>
-      <c r="AH29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AH29" s="30">
+        <f t="shared" si="25"/>
         <v>0.61525255909744248</v>
       </c>
-      <c r="AI29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AI29" s="30">
+        <f t="shared" si="25"/>
         <v>0.56450166279334313</v>
       </c>
-      <c r="AJ29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AJ29" s="30">
+        <f t="shared" si="25"/>
         <v>0.41829865704495672</v>
       </c>
-      <c r="AK29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AK29" s="30">
+        <f t="shared" si="25"/>
         <v>0.11548409166137223</v>
       </c>
-      <c r="AL29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AL29" s="30">
+        <f t="shared" si="25"/>
         <v>2.0444139212504625E-2</v>
       </c>
-      <c r="AM29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AM29" s="30">
+        <f t="shared" si="25"/>
         <v>0.19925753409826669</v>
       </c>
-      <c r="AN29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AN29" s="30">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AO29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AO29" s="30">
+        <f t="shared" si="25"/>
         <v>0.58461190213907177</v>
       </c>
-      <c r="AP29" s="4">
-        <f t="shared" si="24"/>
+      <c r="AP29" s="30">
+        <f t="shared" si="25"/>
         <v>0.37424646372441689</v>
       </c>
-      <c r="AQ29" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
@@ -7595,142 +8391,142 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.5999999999999921E-4</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="16"/>
+      <c r="G30" s="31">
+        <f t="shared" si="17"/>
         <v>904.77868423386042</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="17"/>
+      <c r="H30" s="31">
+        <f t="shared" si="18"/>
         <v>8934.6895068093709</v>
       </c>
       <c r="K30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49107874223762.32</v>
       </c>
       <c r="L30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16988685833.500866</v>
       </c>
       <c r="M30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1438873533048.4797</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="21"/>
+      <c r="O30" s="31">
+        <f t="shared" si="22"/>
         <v>296807390.40208662</v>
       </c>
       <c r="P30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7110818.2681491934</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="9"/>
-        <v>11733200.191479869</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="10"/>
-        <v>3.9531361316794834E-2</v>
-      </c>
-      <c r="S30" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.41979241844558335</v>
-      </c>
-      <c r="U30">
-        <v>18</v>
-      </c>
-      <c r="V30">
+      <c r="Q30" s="31">
         <f t="shared" si="11"/>
         <v>11733200.191479869</v>
       </c>
-      <c r="W30">
-        <f>O31</f>
+      <c r="R30" s="2">
+        <f t="shared" si="12"/>
+        <v>3.9531361316794834E-2</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="26"/>
+        <v>-0.41979241844558335</v>
+      </c>
+      <c r="U30" s="20">
+        <v>18</v>
+      </c>
+      <c r="V30" s="33">
+        <f t="shared" si="13"/>
+        <v>11733200.191479869</v>
+      </c>
+      <c r="W30" s="35">
+        <f t="shared" si="0"/>
         <v>287126497.01610231</v>
       </c>
-      <c r="X30" s="3">
-        <f t="shared" si="12"/>
+      <c r="X30" s="27">
+        <f t="shared" si="24"/>
         <v>1.3379770606744144</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30" s="28">
         <f t="shared" si="24"/>
         <v>0.35841268338746607</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="Z30" s="28">
         <f t="shared" si="24"/>
         <v>1.352050997756999</v>
       </c>
-      <c r="AA30" s="4">
+      <c r="AA30" s="28">
         <f t="shared" si="24"/>
         <v>0.85055078628828007</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AB30" s="28">
         <f t="shared" si="24"/>
         <v>0.17188887317198673</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AC30" s="28">
         <f t="shared" si="24"/>
         <v>0.67710324765002328</v>
       </c>
-      <c r="AD30" s="4">
+      <c r="AD30" s="28">
         <f t="shared" si="24"/>
         <v>0.30775107432840487</v>
       </c>
-      <c r="AE30" s="4">
+      <c r="AE30" s="28">
         <f t="shared" si="24"/>
         <v>0.86602287100479447</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AF30" s="28">
         <f t="shared" si="24"/>
         <v>0.3527652154929885</v>
       </c>
-      <c r="AG30" s="4">
+      <c r="AG30" s="28">
         <f t="shared" si="24"/>
         <v>0.2409415308936339</v>
       </c>
-      <c r="AH30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AH30" s="28">
+        <f t="shared" si="25"/>
         <v>2.8513610945952304E-2</v>
       </c>
-      <c r="AI30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AI30" s="28">
+        <f t="shared" si="25"/>
         <v>1.1503992363397564</v>
       </c>
-      <c r="AJ30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AJ30" s="28">
+        <f t="shared" si="25"/>
         <v>0.99750538117094401</v>
       </c>
-      <c r="AK30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AK30" s="28">
+        <f t="shared" si="25"/>
         <v>0.69614686702501871</v>
       </c>
-      <c r="AL30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AL30" s="28">
+        <f t="shared" si="25"/>
         <v>0.60313188931056538</v>
       </c>
-      <c r="AM30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AM30" s="28">
+        <f t="shared" si="25"/>
         <v>0.38444849725332286</v>
       </c>
-      <c r="AN30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AN30" s="28">
+        <f t="shared" si="25"/>
         <v>0.58461190213907177</v>
       </c>
-      <c r="AO30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AO30" s="28">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AP30" s="4">
-        <f t="shared" si="24"/>
+      <c r="AP30" s="28">
+        <f t="shared" si="25"/>
         <v>0.21341522708545363</v>
       </c>
-      <c r="AQ30" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ30" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -7747,142 +8543,142 @@
         <v>1.0319999999999999E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8000000000000013E-4</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="16"/>
+      <c r="G31" s="31">
+        <f t="shared" si="17"/>
         <v>804.24771931898704</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="17"/>
+      <c r="H31" s="31">
+        <f t="shared" si="18"/>
         <v>9003.8045451883463</v>
       </c>
       <c r="K31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45956638940149.164</v>
       </c>
       <c r="L31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15898527746.494078</v>
       </c>
       <c r="M31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1346541516693.2397</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="21"/>
+      <c r="O31" s="31">
+        <f t="shared" si="22"/>
         <v>287126497.01610231</v>
       </c>
       <c r="P31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6878886.4639990171</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="9"/>
-        <v>11594107.523879871</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0379789550490923E-2</v>
-      </c>
-      <c r="S31" s="2">
-        <f t="shared" si="23"/>
-        <v>-1.8412807145728602</v>
-      </c>
-      <c r="U31">
-        <v>19</v>
-      </c>
-      <c r="V31">
+      <c r="Q31" s="31">
         <f t="shared" si="11"/>
         <v>11594107.523879871</v>
       </c>
-      <c r="W31">
-        <f>O32</f>
+      <c r="R31" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0379789550490923E-2</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="26"/>
+        <v>-1.8412807145728602</v>
+      </c>
+      <c r="U31" s="20">
+        <v>19</v>
+      </c>
+      <c r="V31" s="33">
+        <f t="shared" si="13"/>
+        <v>11594107.523879871</v>
+      </c>
+      <c r="W31" s="35">
+        <f t="shared" si="0"/>
         <v>290646821.88373274</v>
       </c>
-      <c r="X31" s="3">
-        <f t="shared" si="12"/>
+      <c r="X31" s="29">
+        <f t="shared" si="24"/>
         <v>1.1359175047902601</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Y31" s="30">
         <f t="shared" si="24"/>
         <v>0.57218378369226219</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="Z31" s="30">
         <f t="shared" si="24"/>
         <v>1.1447604488235981</v>
       </c>
-      <c r="AA31" s="4">
+      <c r="AA31" s="30">
         <f t="shared" si="24"/>
         <v>0.643803176183257</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AB31" s="30">
         <f t="shared" si="24"/>
         <v>0.38571094219395685</v>
       </c>
-      <c r="AC31" s="4">
+      <c r="AC31" s="30">
         <f t="shared" si="24"/>
         <v>0.46611638198922262</v>
       </c>
-      <c r="AD31" s="4">
+      <c r="AD31" s="30">
         <f t="shared" si="24"/>
         <v>0.52279597971456293</v>
       </c>
-      <c r="AE31" s="4">
+      <c r="AE31" s="30">
         <f t="shared" si="24"/>
         <v>0.65589656819176223</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AF31" s="30">
         <f t="shared" si="24"/>
         <v>0.56765417525865669</v>
       </c>
-      <c r="AG31" s="4">
+      <c r="AG31" s="30">
         <f t="shared" si="24"/>
         <v>2.6933497411452026E-2</v>
       </c>
-      <c r="AH31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AH31" s="30">
+        <f t="shared" si="25"/>
         <v>0.24286062159030564</v>
       </c>
-      <c r="AI31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AI31" s="30">
+        <f t="shared" si="25"/>
         <v>0.94256315092881859</v>
       </c>
-      <c r="AJ31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AJ31" s="30">
+        <f t="shared" si="25"/>
         <v>0.79120072479746317</v>
       </c>
-      <c r="AK31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AK31" s="30">
+        <f t="shared" si="25"/>
         <v>0.48776968682317379</v>
       </c>
-      <c r="AL31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AL31" s="30">
+        <f t="shared" si="25"/>
         <v>0.39355055239702019</v>
       </c>
-      <c r="AM31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AM31" s="30">
+        <f t="shared" si="25"/>
         <v>0.17336306385269237</v>
       </c>
-      <c r="AN31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AN31" s="30">
+        <f t="shared" si="25"/>
         <v>0.37424646372441689</v>
       </c>
-      <c r="AO31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AO31" s="30">
+        <f t="shared" si="25"/>
         <v>0.21341522708545363</v>
       </c>
-      <c r="AP31" s="4">
-        <f t="shared" si="24"/>
+      <c r="AP31" s="30">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="7">
-        <f t="shared" si="13"/>
+      <c r="AQ31" s="3">
+        <f t="shared" si="14"/>
         <v>299792458</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -7899,63 +8695,63 @@
         <v>1.0330000000000001E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.8000000000000013E-4</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="16"/>
+      <c r="G32" s="31">
+        <f t="shared" si="17"/>
         <v>747.69905155437073</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="17"/>
+      <c r="H32" s="31">
+        <f t="shared" si="18"/>
         <v>9047.7868423386044</v>
       </c>
       <c r="K32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47090453265663.648</v>
       </c>
       <c r="L32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16290766581.388863</v>
       </c>
       <c r="M32">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1379762572382.6062</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="21"/>
+      <c r="O32" s="31">
+        <f t="shared" si="22"/>
         <v>290646821.88373274</v>
       </c>
       <c r="P32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6963225.3018718017</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="9"/>
+      <c r="Q32" s="31">
+        <f t="shared" si="11"/>
         <v>11644344.416725511</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.0063553219871748E-2</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>-1.3134195318667634</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>41</v>
       </c>
@@ -7971,7 +8767,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N37">
         <f>AVERAGE(O14:O32)</f>
         <v>294752665.12096059</v>
@@ -7991,7 +8787,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -8007,7 +8803,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>O13</f>
         <v>323789880.43863964</v>
@@ -8027,355 +8823,355 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" ref="A40:B40" si="25">O14</f>
+        <f t="shared" ref="A40:B40" si="27">O14</f>
         <v>309712059.55000132</v>
       </c>
       <c r="B40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7419984.2798078051</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:C70" si="26">1/B40^2</f>
+        <f t="shared" ref="C40:C58" si="28">1/B40^2</f>
         <v>1.8163269615558514E-14</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D70" si="27">C40*A40</f>
+        <f t="shared" ref="D40:D58" si="29">C40*A40</f>
         <v>5.6253836407965882E-6</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" ref="A41:B41" si="28">O15</f>
+        <f t="shared" ref="A41:B41" si="30">O15</f>
         <v>281130943.72591871</v>
       </c>
       <c r="B41">
+        <f t="shared" si="30"/>
+        <v>6735246.8807469159</v>
+      </c>
+      <c r="C41">
         <f t="shared" si="28"/>
-        <v>6735246.8807469159</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="26"/>
         <v>2.2044129879485247E-14</v>
       </c>
       <c r="D41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1972870366364105E-6</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" ref="A42:B42" si="29">O16</f>
+        <f t="shared" ref="A42:B42" si="31">O16</f>
         <v>309348547.74302012</v>
       </c>
       <c r="B42">
+        <f t="shared" si="31"/>
+        <v>7411275.3780709971</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="28"/>
+        <v>1.8205981581097223E-14</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="29"/>
-        <v>7411275.3780709971</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="26"/>
-        <v>1.8205981581097223E-14</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="27"/>
         <v>5.6319939623485993E-6</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" ref="A43:B43" si="30">O17</f>
+        <f t="shared" ref="A43:B43" si="32">O17</f>
         <v>301351287.98938149</v>
       </c>
       <c r="B43">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7219679.5398599962</v>
       </c>
       <c r="C43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9185104013020452E-14</v>
       </c>
       <c r="D43">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.7814558045339643E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" ref="A44:B44" si="31">O18</f>
+        <f t="shared" ref="A44:B44" si="33">O18</f>
         <v>284266233.06115103</v>
       </c>
       <c r="B44">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>6810361.1582273412</v>
       </c>
       <c r="C44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1560543931247877E-14</v>
       </c>
       <c r="D44">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1289346060852948E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" ref="A45:B45" si="32">O19</f>
+        <f t="shared" ref="A45:B45" si="34">O19</f>
         <v>298276174.59516788</v>
       </c>
       <c r="B45">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>7146006.9386805501</v>
       </c>
       <c r="C45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9582725347802486E-14</v>
       </c>
       <c r="D45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.8410604048903542E-6</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" ref="A46:B46" si="33">O20</f>
+        <f t="shared" ref="A46:B46" si="35">O20</f>
         <v>282015256.10252202</v>
       </c>
       <c r="B46">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>6756432.9590106085</v>
       </c>
       <c r="C46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.1906099520805023E-14</v>
       </c>
       <c r="D46">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1778542665671636E-6</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" ref="A47:B47" si="34">O21</f>
+        <f t="shared" ref="A47:B47" si="36">O21</f>
         <v>301367811.25333238</v>
       </c>
       <c r="B47">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>7220075.3990297839</v>
       </c>
       <c r="C47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9183000325529542E-14</v>
       </c>
       <c r="D47">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.7811388213768006E-6</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" ref="A48:B48" si="35">O22</f>
+        <f t="shared" ref="A48:B48" si="37">O22</f>
         <v>281256355.29932851</v>
       </c>
       <c r="B48">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>6738251.4518461451</v>
       </c>
       <c r="C48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.2024475406983129E-14</v>
       </c>
       <c r="D48">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.1945236803477698E-6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" ref="A49:B49" si="36">O23</f>
+        <f t="shared" ref="A49:B49" si="38">O23</f>
         <v>291086862.49218649</v>
       </c>
       <c r="B49">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>6973767.6566059003</v>
       </c>
       <c r="C49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.0561985663752446E-14</v>
       </c>
       <c r="D49">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9853238934710184E-6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" ref="A50:B50" si="37">O24</f>
+        <f t="shared" ref="A50:B50" si="39">O24</f>
         <v>286655024.935615</v>
       </c>
       <c r="B50">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>6867591.0839267429</v>
       </c>
       <c r="C50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.12026987923889E-14</v>
       </c>
       <c r="D50">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.077860151034574E-6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" ref="A51:B51" si="38">O25</f>
+        <f t="shared" ref="A51:B51" si="40">O25</f>
         <v>306097136.58055419</v>
       </c>
       <c r="B51">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>7333379.0903134542</v>
       </c>
       <c r="C51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8594809273685119E-14</v>
       </c>
       <c r="D51">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.6918178739365493E-6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" ref="A52:B52" si="39">O26</f>
+        <f t="shared" ref="A52:B52" si="41">O26</f>
         <v>303774700.03593844</v>
       </c>
       <c r="B52">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7277738.8847724143</v>
       </c>
       <c r="C52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8880220441099172E-14</v>
       </c>
       <c r="D52">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.7353333011072949E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" ref="A53:B53" si="40">O27</f>
+        <f t="shared" ref="A53:B53" si="42">O27</f>
         <v>298728108.19303924</v>
       </c>
       <c r="B53">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7156834.2219209727</v>
       </c>
       <c r="C53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9523518351149911E-14</v>
       </c>
       <c r="D53">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.8322237023110979E-6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" ref="A54:B54" si="41">O28</f>
+        <f t="shared" ref="A54:B54" si="43">O28</f>
         <v>297146340.60049045</v>
       </c>
       <c r="B54">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>7118938.7305795196</v>
       </c>
       <c r="C54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9731926525472825E-14</v>
       </c>
       <c r="D54">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.863269760042E-6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" ref="A55:B55" si="42">O29</f>
+        <f t="shared" ref="A55:B55" si="44">O29</f>
         <v>293507085.83868241</v>
       </c>
       <c r="B55">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>7031750.6076434413</v>
       </c>
       <c r="C55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.0224280553604462E-14</v>
       </c>
       <c r="D55">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9359696484723805E-6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" ref="A56:B56" si="43">O30</f>
+        <f t="shared" ref="A56:B56" si="45">O30</f>
         <v>296807390.40208662</v>
       </c>
       <c r="B56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>7110818.2681491934</v>
       </c>
       <c r="C56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9777019467980277E-14</v>
       </c>
       <c r="D56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.8699655382224891E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" ref="A57:B57" si="44">O31</f>
+        <f t="shared" ref="A57:B57" si="46">O31</f>
         <v>287126497.01610231</v>
       </c>
       <c r="B57">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6878886.4639990171</v>
       </c>
       <c r="C57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.113312476613682E-14</v>
       </c>
       <c r="D57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.0678800851051012E-6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" ref="A58:B58" si="45">O32</f>
+        <f t="shared" ref="A58:B58" si="47">O32</f>
         <v>290646821.88373274</v>
       </c>
       <c r="B58">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>6963225.3018718017</v>
       </c>
       <c r="C58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.0624294675512014E-14</v>
       </c>
       <c r="D58">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.9943857010311575E-6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59">
         <f>SUM(C39:C58)</f>
         <v>3.9872739810193389E-13</v>
@@ -8385,7 +9181,7 @@
         <v>1.1779446362168724E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>59</v>
       </c>
@@ -8393,16 +9189,22 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
         <v>61</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s">
         <v>63</v>
       </c>
-      <c r="F62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <f>D59/C59</f>
         <v>295426058.46105742</v>
@@ -8412,69 +9214,77 @@
         <v>1583660.0479770694</v>
       </c>
       <c r="D63">
+        <f>C63/B63</f>
+        <v>5.360597017834921E-3</v>
+      </c>
+      <c r="E63">
         <f>P37</f>
         <v>2141129.1940997532</v>
       </c>
-      <c r="E63">
-        <f>SQRT(C63^2+D63^2)</f>
-        <v>2663158.5332805468</v>
-      </c>
       <c r="F63">
         <f>E63/B63</f>
+        <v>7.2475976061603699E-3</v>
+      </c>
+      <c r="G63">
+        <f>SQRT(C63^2+E63^2)</f>
+        <v>2663158.5332805468</v>
+      </c>
+      <c r="H63">
+        <f>G63/B63</f>
         <v>9.0146365122750326E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66">
-        <f>(B63-B10)/E63</f>
+        <f>(B63-B10)/G63</f>
         <v>-1.6395567460131384</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
-    <sheetView topLeftCell="S3" zoomScale="69" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+    <sheetView topLeftCell="M9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN45" sqref="V27:AN45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53125" customWidth="1"/>
-    <col min="2" max="2" width="16.53125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="7" width="9.1328125" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="11" max="12" width="11.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" customWidth="1"/>
-    <col min="16" max="16" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.796875" customWidth="1"/>
-    <col min="18" max="18" width="15.53125" customWidth="1"/>
-    <col min="20" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="24" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="20" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="24" width="11.85546875" customWidth="1"/>
     <col min="25" max="25" width="12" customWidth="1"/>
-    <col min="26" max="26" width="11.796875" customWidth="1"/>
-    <col min="27" max="27" width="9.796875" customWidth="1"/>
-    <col min="28" max="30" width="11.796875" customWidth="1"/>
-    <col min="31" max="44" width="9.1328125" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="30" width="11.85546875" customWidth="1"/>
+    <col min="31" max="44" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8485,7 +9295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8499,7 +9309,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8513,7 +9323,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8527,7 +9337,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8540,7 +9350,7 @@
         <v>0.31182687504447071</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8553,7 +9363,7 @@
         <v>8.3741192444340058</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8561,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -8569,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8580,7 +9390,7 @@
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -8588,80 +9398,83 @@
         <f>299792458/1.00027</f>
         <v>299711535.88531095</v>
       </c>
-      <c r="W10" t="s">
+      <c r="V10" s="19"/>
+      <c r="W10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="9">
         <f t="array" ref="X10:AG12">TRANSPOSE(U13:W22)</f>
         <v>1</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="9">
         <v>2</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="9">
         <v>3</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="9">
         <v>4</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="9">
         <v>5</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="9">
         <v>6</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="9">
         <v>7</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="9">
         <v>8</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="9">
         <v>9</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>14</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" s="7"/>
+      <c r="V11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="X11">
+      <c r="W11" s="12"/>
+      <c r="X11" s="12">
         <v>15429706.37609799</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="12">
         <v>15078886.460931618</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="12">
         <v>15363939.393962273</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="12">
         <v>15074894.723848991</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="12">
         <v>15089764.072389781</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="12">
         <v>15385451.709149985</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="12">
         <v>15376031.808424059</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="12">
         <v>15249612.179053027</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="12">
         <v>15484100.652599996</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="12">
         <v>15304581.901952254</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -8707,47 +9520,48 @@
       <c r="S12" t="s">
         <v>37</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W12" t="s">
+      <c r="V12" s="10"/>
+      <c r="W12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="14">
         <v>319301847.21995014</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="14">
         <v>288628374.74495649</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="14">
         <v>313727999.51286864</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="14">
         <v>288264862.9379729</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="14">
         <v>289617126.8599506</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="14">
         <v>315559406.61662453</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="14">
         <v>314758458.75283343</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="14">
         <v>303854326.43175352</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="14">
         <v>323856945.45115757</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="14">
         <v>308631910.18068045</v>
       </c>
       <c r="AH12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -8807,54 +9621,54 @@
         <f>(O13-$B$10)/Q13</f>
         <v>1.2696490041434849</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="8">
         <v>1</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="10">
         <f>Q13</f>
         <v>15429706.37609799</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="18">
         <f t="shared" ref="W13:W22" si="0">O13</f>
         <v>319301847.21995014</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="15">
         <f t="shared" ref="X13:AG22" si="1">ABS(($W13-X$12)/SQRT($V13^2+X$11^2))</f>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="13">
         <f t="shared" si="1"/>
         <v>1.4217624962919193</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="13">
         <f t="shared" si="1"/>
         <v>0.25598115608641997</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="13">
         <f t="shared" si="1"/>
         <v>1.4387978761549387</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="13">
         <f t="shared" si="1"/>
         <v>1.3754475275415488</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="13">
         <f t="shared" si="1"/>
         <v>0.17175329054029753</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="13">
         <f t="shared" si="1"/>
         <v>0.20857516212887978</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="13">
         <f t="shared" si="1"/>
         <v>0.71206656602429763</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="13">
         <f t="shared" si="1"/>
         <v>0.20838170201795322</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="13">
         <f t="shared" si="1"/>
         <v>0.49096450470070058</v>
       </c>
@@ -8863,7 +9677,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8923,54 +9737,54 @@
         <f t="shared" ref="S14:S22" si="11">(O14-$B$10)/Q14</f>
         <v>-0.73501191013475564</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="8">
         <v>2</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="10">
         <f t="shared" ref="V14:V22" si="12">Q14</f>
         <v>15078886.460931618</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="18">
         <f t="shared" si="0"/>
         <v>288628374.74495649</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="16">
         <f t="shared" si="1"/>
         <v>1.4217624962919193</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="5">
         <f t="shared" si="1"/>
         <v>1.1659454330455783</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="5">
         <f t="shared" si="1"/>
         <v>1.7048718363517998E-2</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="5">
         <f t="shared" si="1"/>
         <v>4.6349655527776694E-2</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="5">
         <f t="shared" si="1"/>
         <v>1.2501273469697955</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="5">
         <f t="shared" si="1"/>
         <v>1.2133265326031717</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="5">
         <f t="shared" si="1"/>
         <v>0.70997270499238441</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="5">
         <f t="shared" si="1"/>
         <v>1.62995665448322</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="5">
         <f t="shared" si="1"/>
         <v>0.93104876380477031</v>
       </c>
@@ -8979,7 +9793,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9039,54 +9853,54 @@
         <f t="shared" si="11"/>
         <v>0.91229620660088584</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="8">
         <v>3</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="10">
         <f t="shared" si="12"/>
         <v>15363939.393962273</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="18">
         <f t="shared" si="0"/>
         <v>313727999.51286864</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="17">
         <f t="shared" si="1"/>
         <v>0.25598115608641997</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="6">
         <f t="shared" si="1"/>
         <v>1.1659454330455783</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="6">
         <f t="shared" si="1"/>
         <v>1.1829851789327992</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="6">
         <f t="shared" si="1"/>
         <v>1.11961887771891</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="6">
         <f t="shared" si="1"/>
         <v>8.4229314390179277E-2</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="6">
         <f t="shared" si="1"/>
         <v>4.7406983899938526E-2</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="6">
         <f t="shared" si="1"/>
         <v>0.45611777441556933</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="6">
         <f t="shared" si="1"/>
         <v>0.46435313312421028</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="6">
         <f t="shared" si="1"/>
         <v>0.23499486918801035</v>
       </c>
@@ -9095,7 +9909,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9155,54 +9969,54 @@
         <f t="shared" si="11"/>
         <v>-0.75932025775470413</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="8">
         <v>4</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="10">
         <f t="shared" si="12"/>
         <v>15074894.723848991</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="18">
         <f t="shared" si="0"/>
         <v>288264862.9379729</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="16">
         <f t="shared" si="1"/>
         <v>1.4387978761549387</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="5">
         <f t="shared" si="1"/>
         <v>1.7048718363517998E-2</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="5">
         <f t="shared" si="1"/>
         <v>1.1829851789327992</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="5">
         <f t="shared" si="1"/>
         <v>6.3398354973671883E-2</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="5">
         <f t="shared" si="1"/>
         <v>1.267165752449426</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="5">
         <f t="shared" si="1"/>
         <v>1.230365535655471</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="5">
         <f t="shared" si="1"/>
         <v>0.72701807979887356</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="5">
         <f t="shared" si="1"/>
         <v>1.6469878348676326</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="5">
         <f t="shared" si="1"/>
         <v>0.94809175243778609</v>
       </c>
@@ -9211,7 +10025,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -9271,54 +10085,54 @@
         <f t="shared" si="11"/>
         <v>-0.66895737911704034</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="8">
         <v>5</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="10">
         <f t="shared" si="12"/>
         <v>15089764.072389781</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="18">
         <f t="shared" si="0"/>
         <v>289617126.8599506</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="17">
         <f t="shared" si="1"/>
         <v>1.3754475275415488</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="6">
         <f t="shared" si="1"/>
         <v>4.6349655527776694E-2</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="6">
         <f t="shared" si="1"/>
         <v>1.11961887771891</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="6">
         <f t="shared" si="1"/>
         <v>6.3398354973671883E-2</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="6">
         <f t="shared" si="1"/>
         <v>1.2038043425456275</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="6">
         <f t="shared" si="1"/>
         <v>1.1670019443261173</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="6">
         <f t="shared" si="1"/>
         <v>0.66363135184462563</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="6">
         <f t="shared" si="1"/>
         <v>1.583652872466901</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="6">
         <f t="shared" si="1"/>
         <v>0.88471365278105496</v>
       </c>
@@ -9327,7 +10141,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -9387,54 +10201,54 @@
         <f t="shared" si="11"/>
         <v>1.0300556025851741</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="8">
         <v>6</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="10">
         <f t="shared" si="12"/>
         <v>15385451.709149985</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="18">
         <f t="shared" si="0"/>
         <v>315559406.61662453</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="16">
         <f t="shared" si="1"/>
         <v>0.17175329054029753</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="5">
         <f t="shared" si="1"/>
         <v>1.2501273469697955</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="5">
         <f t="shared" si="1"/>
         <v>8.4229314390179277E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="5">
         <f t="shared" si="1"/>
         <v>1.267165752449426</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="5">
         <f t="shared" si="1"/>
         <v>1.2038043425456275</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="5">
         <f t="shared" si="1"/>
         <v>3.6822387905028175E-2</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="5">
         <f t="shared" si="1"/>
         <v>0.54033902055728644</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="5">
         <f t="shared" si="1"/>
         <v>0.38012964680846462</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="5">
         <f t="shared" si="1"/>
         <v>0.3192217227507439</v>
       </c>
@@ -9443,7 +10257,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -9503,54 +10317,54 @@
         <f t="shared" si="11"/>
         <v>0.97859597684226485</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="8">
         <v>7</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="10">
         <f t="shared" si="12"/>
         <v>15376031.808424059</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="18">
         <f t="shared" si="0"/>
         <v>314758458.75283343</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="17">
         <f t="shared" si="1"/>
         <v>0.20857516212887978</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="6">
         <f t="shared" si="1"/>
         <v>1.2133265326031717</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="6">
         <f t="shared" si="1"/>
         <v>4.7406983899938526E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="6">
         <f t="shared" si="1"/>
         <v>1.230365535655471</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="6">
         <f t="shared" si="1"/>
         <v>1.1670019443261173</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="6">
         <f t="shared" si="1"/>
         <v>3.6822387905028175E-2</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="6">
         <f t="shared" si="1"/>
         <v>0.50352052811447123</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="6">
         <f t="shared" si="1"/>
         <v>0.41694974595387835</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="6">
         <f t="shared" si="1"/>
         <v>0.28240062823139928</v>
       </c>
@@ -9559,7 +10373,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -9619,54 +10433,54 @@
         <f t="shared" si="11"/>
         <v>0.27166530517629389</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="8">
         <v>8</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="10">
         <f t="shared" si="12"/>
         <v>15249612.179053027</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="18">
         <f t="shared" si="0"/>
         <v>303854326.43175352</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="16">
         <f t="shared" si="1"/>
         <v>0.71206656602429763</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="5">
         <f t="shared" si="1"/>
         <v>0.70997270499238441</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="5">
         <f t="shared" si="1"/>
         <v>0.45611777441556933</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="5">
         <f t="shared" si="1"/>
         <v>0.72701807979887356</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="5">
         <f t="shared" si="1"/>
         <v>0.66363135184462563</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="5">
         <f t="shared" si="1"/>
         <v>0.54033902055728644</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="5">
         <f t="shared" si="1"/>
         <v>0.50352052811447123</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="5">
         <f t="shared" si="1"/>
         <v>0.9203948751819786</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="5">
         <f t="shared" si="1"/>
         <v>0.22113209010599963</v>
       </c>
@@ -9675,7 +10489,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -9735,54 +10549,54 @@
         <f t="shared" si="11"/>
         <v>1.559367903087886</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="8">
         <v>9</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="10">
         <f t="shared" si="12"/>
         <v>15484100.652599996</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="18">
         <f t="shared" si="0"/>
         <v>323856945.45115757</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="17">
         <f t="shared" si="1"/>
         <v>0.20838170201795322</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="6">
         <f t="shared" si="1"/>
         <v>1.62995665448322</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="6">
         <f t="shared" si="1"/>
         <v>0.46435313312421028</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="6">
         <f t="shared" si="1"/>
         <v>1.6469878348676326</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="6">
         <f t="shared" si="1"/>
         <v>1.583652872466901</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="6">
         <f t="shared" si="1"/>
         <v>0.38012964680846462</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="6">
         <f t="shared" si="1"/>
         <v>0.41694974595387835</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="6">
         <f t="shared" si="1"/>
         <v>0.9203948751819786</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="6">
         <f t="shared" si="1"/>
         <v>0.69931817766472015</v>
       </c>
@@ -9791,7 +10605,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -9851,54 +10665,54 @@
         <f t="shared" si="11"/>
         <v>0.5828564512586667</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="8">
         <v>10</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="10">
         <f t="shared" si="12"/>
         <v>15304581.901952254</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="18">
         <f t="shared" si="0"/>
         <v>308631910.18068045</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="16">
         <f t="shared" si="1"/>
         <v>0.49096450470070058</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="5">
         <f t="shared" si="1"/>
         <v>0.93104876380477031</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="5">
         <f t="shared" si="1"/>
         <v>0.23499486918801035</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="5">
         <f t="shared" si="1"/>
         <v>0.94809175243778609</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="5">
         <f t="shared" si="1"/>
         <v>0.88471365278105496</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="5">
         <f t="shared" si="1"/>
         <v>0.3192217227507439</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="5">
         <f t="shared" si="1"/>
         <v>0.28240062823139928</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="5">
         <f t="shared" si="1"/>
         <v>0.22113209010599963</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="5">
         <f t="shared" si="1"/>
         <v>0.69931817766472015</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9907,20 +10721,20 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="M25" t="s">
@@ -9938,7 +10752,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="M26">
         <f>AVERAGE(O13:O22)</f>
@@ -9958,8 +10772,68 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="V26" t="s">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -9972,7 +10846,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>O13</f>
         <v>319301847.21995014</v>
@@ -9992,7 +10866,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29:B36" si="14">O14</f>
         <v>288628374.74495649</v>
@@ -10012,7 +10886,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="14"/>
         <v>313727999.51286864</v>
@@ -10032,7 +10906,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="14"/>
         <v>288264862.9379729</v>
@@ -10052,7 +10926,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="14"/>
         <v>289617126.8599506</v>
@@ -10072,7 +10946,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="14"/>
         <v>315559406.61662453</v>
@@ -10092,7 +10966,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="14"/>
         <v>314758458.75283343</v>
@@ -10112,7 +10986,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="14"/>
         <v>303854326.43175352</v>
@@ -10132,7 +11006,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="14"/>
         <v>323856945.45115757</v>
@@ -10152,7 +11026,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>O22</f>
         <v>308631910.18068045</v>
@@ -10172,7 +11046,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>47</v>
       </c>
@@ -10187,11 +11061,11 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -10199,18 +11073,24 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
         <v>50</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>53</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>54</v>
       </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>D38/C38</f>
         <v>305539532.36232483</v>
@@ -10220,38 +11100,50 @@
         <v>2316854.4487546152</v>
       </c>
       <c r="C41">
+        <f>B41/A41</f>
+        <v>7.5828303815270864E-3</v>
+      </c>
+      <c r="D41">
         <f>O26</f>
         <v>4237421.5949525535</v>
       </c>
-      <c r="D41">
-        <f>(C41+B41)</f>
+      <c r="E41">
+        <f>D41/A41</f>
+        <v>1.3868652485622045E-2</v>
+      </c>
+      <c r="F41">
+        <f>(D41+B41)</f>
         <v>6554276.0437071687</v>
       </c>
-      <c r="E41" s="2">
-        <f>D41/A41</f>
+      <c r="G41" s="2">
+        <f>F41/A41</f>
         <v>2.1451482867149131E-2</v>
       </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>ABS(A41-B10)/D41</f>
+        <f>ABS(A41-B10)/F41</f>
         <v>0.88918996364356795</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -10259,36 +11151,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53125" customWidth="1"/>
-    <col min="2" max="2" width="16.53125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="7" width="9.1328125" customWidth="1"/>
-    <col min="8" max="8" width="9.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" customWidth="1"/>
-    <col min="11" max="12" width="11.86328125" customWidth="1"/>
-    <col min="13" max="13" width="11.9296875" customWidth="1"/>
-    <col min="14" max="14" width="9.06640625" customWidth="1"/>
-    <col min="15" max="15" width="12.265625" customWidth="1"/>
-    <col min="16" max="16" width="9.9296875" customWidth="1"/>
-    <col min="17" max="18" width="15.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.53125" customWidth="1"/>
-    <col min="21" max="22" width="9.33203125" customWidth="1"/>
-    <col min="23" max="25" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="21" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="25" width="11.85546875" customWidth="1"/>
     <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="11.796875" customWidth="1"/>
-    <col min="28" max="28" width="9.796875" customWidth="1"/>
-    <col min="29" max="31" width="11.796875" customWidth="1"/>
-    <col min="32" max="45" width="9.1328125" customWidth="1"/>
+    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="28" max="28" width="9.85546875" customWidth="1"/>
+    <col min="29" max="31" width="11.85546875" customWidth="1"/>
+    <col min="32" max="45" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10296,10 +11188,10 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10313,7 +11205,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10327,7 +11219,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10341,7 +11233,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10354,7 +11246,7 @@
         <v>0.31182687504447071</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -10367,7 +11259,7 @@
         <v>8.3741192444340058</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10375,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10383,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -10394,7 +11286,7 @@
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -10437,7 +11329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>14</v>
       </c>
@@ -10478,7 +11370,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -10562,7 +11454,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -10678,7 +11570,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -10741,7 +11633,7 @@
       <c r="U14">
         <v>2</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="31">
         <f t="shared" ref="V14:V22" si="11">P14</f>
         <v>7205767.9176049847</v>
       </c>
@@ -10794,7 +11686,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10910,7 +11802,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11026,7 +11918,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -11142,7 +12034,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11258,7 +12150,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -11374,7 +12266,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -11490,7 +12382,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -11606,7 +12498,7 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -11722,14 +12614,14 @@
         <v>299711535.88531095</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -11737,7 +12629,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="O25" t="s">
@@ -11750,11 +12642,11 @@
         <v>62</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="O26">
         <f>AVERAGE(O13:O22)</f>
@@ -11774,12 +12666,12 @@
       </c>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
@@ -11791,13 +12683,13 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>O13</f>
+        <f t="shared" ref="B28:B37" si="15">O13</f>
         <v>294810390.82550448</v>
       </c>
       <c r="C28">
-        <f>P13</f>
+        <f t="shared" ref="C28:C37" si="16">P13</f>
         <v>7062974.7793081347</v>
       </c>
       <c r="D28">
@@ -11812,196 +12704,196 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>O14</f>
+        <f t="shared" si="15"/>
         <v>300770613.28471857</v>
       </c>
       <c r="C29">
-        <f>P14</f>
+        <f t="shared" si="16"/>
         <v>7205767.9176049847</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:D37" si="15">1/C29^2</f>
+        <f t="shared" ref="D29:D37" si="17">1/C29^2</f>
         <v>1.925925393311947E-14</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E37" si="16">D29*B29</f>
+        <f t="shared" ref="E29:E37" si="18">D29*B29</f>
         <v>5.792617616870471E-6</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>O15</f>
+        <f t="shared" si="15"/>
         <v>291102084.02266806</v>
       </c>
       <c r="C30">
-        <f>P15</f>
+        <f t="shared" si="16"/>
         <v>6974132.3292539474</v>
       </c>
       <c r="D30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0559835375411434E-14</v>
       </c>
       <c r="E30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.9850109249452427E-6</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>O16</f>
+        <f t="shared" si="15"/>
         <v>291328748.16826212</v>
       </c>
       <c r="C31">
-        <f>P16</f>
+        <f t="shared" si="16"/>
         <v>6979562.6776864463</v>
       </c>
       <c r="D31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0527855252226621E-14</v>
       </c>
       <c r="E31">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.9803543732104664E-6</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>O17</f>
+        <f t="shared" si="15"/>
         <v>296542809.02358556</v>
       </c>
       <c r="C32">
-        <f>P17</f>
+        <f t="shared" si="16"/>
         <v>7104479.5105559006</v>
       </c>
       <c r="D32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9812326110008471E-14</v>
       </c>
       <c r="E32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.87520283795324E-6</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>O18</f>
+        <f t="shared" si="15"/>
         <v>293881120.35586876</v>
       </c>
       <c r="C33">
-        <f>P18</f>
+        <f t="shared" si="16"/>
         <v>7040711.609167438</v>
       </c>
       <c r="D33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.017283277683908E-14</v>
       </c>
       <c r="E33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.9284146972090597E-6</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>O19</f>
+        <f t="shared" si="15"/>
         <v>299709696.453385</v>
       </c>
       <c r="C34">
-        <f>P19</f>
+        <f t="shared" si="16"/>
         <v>7180350.8052648464</v>
       </c>
       <c r="D34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9395843642916228E-14</v>
       </c>
       <c r="E34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.8131224106757401E-6</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>O20</f>
+        <f t="shared" si="15"/>
         <v>297306933.35696572</v>
       </c>
       <c r="C35">
-        <f>P20</f>
+        <f t="shared" si="16"/>
         <v>7122786.1614164999</v>
       </c>
       <c r="D35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.971061556169692E-14</v>
       </c>
       <c r="E35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.8601026672261981E-6</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>O21</f>
+        <f t="shared" si="15"/>
         <v>294090139.64488363</v>
       </c>
       <c r="C36">
-        <f>P21</f>
+        <f t="shared" si="16"/>
         <v>7045719.22766612</v>
       </c>
       <c r="D36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.014416800919538E-14</v>
       </c>
       <c r="E36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.9242011828542668E-6</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>O22</f>
+        <f t="shared" si="15"/>
         <v>299816203.09746939</v>
       </c>
       <c r="C37">
-        <f>P22</f>
+        <f t="shared" si="16"/>
         <v>7182902.4580030339</v>
       </c>
       <c r="D37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.9382065739857458E-14</v>
       </c>
       <c r="E37">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.8110573583096073E-6</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D38">
         <f>SUM(D28:D37)</f>
         <v>1.9901065622360865E-13</v>
@@ -12014,22 +12906,22 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -12037,19 +12929,25 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
         <v>53</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>54</v>
       </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43">
         <f>E38/D38</f>
         <v>295862608.34069848</v>
@@ -12058,31 +12956,44 @@
         <f>1/D38^(0.5)</f>
         <v>2241619.1810360663</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
+        <f>C43/B43</f>
+        <v>7.5765545149752266E-3</v>
+      </c>
+      <c r="E43" s="2">
         <f>Q26</f>
         <v>1097513.1578403374</v>
       </c>
-      <c r="E43">
-        <f>SQRT(D43^2+C43^2)</f>
+      <c r="F43" s="2">
+        <f>E43/B43</f>
+        <v>3.7095365446670569E-3</v>
+      </c>
+      <c r="G43">
+        <f>SQRT(E43^2+C43^2)</f>
         <v>2495874.9336498161</v>
       </c>
-      <c r="F43">
-        <f>E43/B43</f>
+      <c r="H43">
+        <f>G43/B43</f>
         <v>8.435925538707173E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>ABS(B10-B43)/E43</f>
+        <f>ABS(B10-B43)/G43</f>
         <v>1.5421155494294057</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="X13:AG22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1.96</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Data/Analyzed/DataAnalyzed.xlsx
+++ b/Data/Analyzed/DataAnalyzed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
   <si>
     <t>Costanti</t>
   </si>
@@ -239,12 +239,6 @@
     <t>measure</t>
   </si>
   <si>
-    <t>C final error</t>
-  </si>
-  <si>
-    <t>C error rel</t>
-  </si>
-  <si>
     <t>C vero</t>
   </si>
   <si>
@@ -385,15 +379,43 @@
   <si>
     <t>Dev. Std.</t>
   </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>$c$</t>
+  </si>
+  <si>
+    <t>$\sigma_{sist}$</t>
+  </si>
+  <si>
+    <t>$\sigma_{sist}$ Rel.</t>
+  </si>
+  <si>
+    <t>$c_{rand}$</t>
+  </si>
+  <si>
+    <t>$\sigma_c$</t>
+  </si>
+  <si>
+    <t>$\sigma_c$ rel</t>
+  </si>
+  <si>
+    <t>$c$ \si{\meter\per\second}</t>
+  </si>
+  <si>
+    <t>Err. rel.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -628,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -669,9 +691,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5079,10 +5102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="H27:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5111,6 +5134,34 @@
       <c r="D2" t="s">
         <v>27</v>
       </c>
+      <c r="H2" t="str">
+        <f>'Misura di c'!B62</f>
+        <v>C final</v>
+      </c>
+      <c r="I2" t="str">
+        <f>'Misura di c'!C62</f>
+        <v>C error strum</v>
+      </c>
+      <c r="J2" t="str">
+        <f>'Misura di c'!D62</f>
+        <v>error strum rel</v>
+      </c>
+      <c r="K2" t="str">
+        <f>'Misura di c'!E62</f>
+        <v>C error random</v>
+      </c>
+      <c r="L2" t="str">
+        <f>'Misura di c'!F62</f>
+        <v>error rand rel</v>
+      </c>
+      <c r="M2" t="str">
+        <f>'Misura di c'!G62</f>
+        <v>C error tot</v>
+      </c>
+      <c r="N2" t="str">
+        <f>'Misura di c'!H62</f>
+        <v>Error rel</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
@@ -5126,6 +5177,34 @@
         <f>C3/B3</f>
         <v>6.3291139240506328E-3</v>
       </c>
+      <c r="H3">
+        <f>'Misura di c'!B63</f>
+        <v>297591064.4613865</v>
+      </c>
+      <c r="I3">
+        <f>'Misura di c'!C63</f>
+        <v>1735641.7089090352</v>
+      </c>
+      <c r="J3">
+        <f>'Misura di c'!D63</f>
+        <v>5.8323045150915171E-3</v>
+      </c>
+      <c r="K3">
+        <f>'Misura di c'!E63</f>
+        <v>2156820.2864050595</v>
+      </c>
+      <c r="L3">
+        <f>'Misura di c'!F63</f>
+        <v>7.2475976061603647E-3</v>
+      </c>
+      <c r="M3">
+        <f>'Misura di c'!G63</f>
+        <v>2768451.8940290581</v>
+      </c>
+      <c r="N3" s="39">
+        <f>'Misura di c'!H63</f>
+        <v>9.3028730517823541E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
@@ -5141,6 +5220,34 @@
         <f t="shared" ref="D4:D7" si="0">C4/B4</f>
         <v>3.0303030303030304E-2</v>
       </c>
+      <c r="H4">
+        <f>'Misura di c (2)'!A41</f>
+        <v>307778654.13901591</v>
+      </c>
+      <c r="I4">
+        <f>'Misura di c (2)'!B41</f>
+        <v>2539199.7606219756</v>
+      </c>
+      <c r="J4">
+        <f>'Misura di c (2)'!C41</f>
+        <v>8.2500840343368402E-3</v>
+      </c>
+      <c r="K4">
+        <f>'Misura di c (2)'!D41</f>
+        <v>4268475.1967464751</v>
+      </c>
+      <c r="L4">
+        <f>'Misura di c (2)'!E41</f>
+        <v>1.3868652485622059E-2</v>
+      </c>
+      <c r="M4">
+        <f>'Misura di c (2)'!F41</f>
+        <v>6807674.9573684502</v>
+      </c>
+      <c r="N4" s="39">
+        <f>'Misura di c (2)'!G41</f>
+        <v>2.2118736519958899E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5156,6 +5263,34 @@
         <f t="shared" si="0"/>
         <v>6.1162079510703364E-3</v>
       </c>
+      <c r="H5">
+        <f>'Misura di c (3)'!B43</f>
+        <v>298030813.56154925</v>
+      </c>
+      <c r="I5">
+        <f>'Misura di c (3)'!C43</f>
+        <v>2456744.2684852304</v>
+      </c>
+      <c r="J5">
+        <f>'Misura di c (3)'!D43</f>
+        <v>8.2432559208441177E-3</v>
+      </c>
+      <c r="K5">
+        <f>'Misura di c (3)'!E43</f>
+        <v>1105556.1943434244</v>
+      </c>
+      <c r="L5">
+        <f>'Misura di c (3)'!F43</f>
+        <v>3.7095365446670673E-3</v>
+      </c>
+      <c r="M5">
+        <f>'Misura di c (3)'!G43</f>
+        <v>2694039.142177809</v>
+      </c>
+      <c r="N5" s="39">
+        <f>'Misura di c (3)'!H43</f>
+        <v>9.0394651143058287E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -5211,20 +5346,64 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="H11" s="4"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="34"/>
+      <c r="H11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="31" t="str">
+        <f>"\num{" &amp; TEXT(H3/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{2.98E+08}</v>
+      </c>
+      <c r="J11" s="31" t="str">
+        <f>"\num{" &amp; TEXT(I3/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.02E+08}</v>
+      </c>
+      <c r="K11" s="34">
+        <f>J3</f>
+        <v>5.8323045150915171E-3</v>
+      </c>
+      <c r="L11" s="31" t="str">
+        <f>"\num{" &amp; TEXT(K3/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.02E+08}</v>
+      </c>
+      <c r="M11" s="34">
+        <f>L3</f>
+        <v>7.2475976061603647E-3</v>
+      </c>
+      <c r="N11" s="31" t="str">
+        <f>"\num{" &amp; TEXT(M3/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.03E+08}</v>
+      </c>
+      <c r="O11" s="34">
+        <f>N3</f>
+        <v>9.3028730517823541E-3</v>
+      </c>
+      <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17">
@@ -5234,13 +5413,37 @@
       <c r="B12" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
+      <c r="H12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="33" t="str">
+        <f t="shared" ref="I12:J12" si="1">"\num{" &amp; TEXT(H4/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{3.08E+08}</v>
+      </c>
+      <c r="J12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>\num{0.03E+08}</v>
+      </c>
+      <c r="K12" s="33">
+        <f t="shared" ref="K12:K13" si="2">J4</f>
+        <v>8.2500840343368402E-3</v>
+      </c>
+      <c r="L12" s="32" t="str">
+        <f t="shared" ref="L12:L13" si="3">"\num{" &amp; TEXT(K4/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.04E+08}</v>
+      </c>
+      <c r="M12" s="33">
+        <f t="shared" ref="M12:M13" si="4">L4</f>
+        <v>1.3868652485622059E-2</v>
+      </c>
+      <c r="N12" s="32" t="str">
+        <f t="shared" ref="N12:N13" si="5">"\num{" &amp; TEXT(M4/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.07E+08}</v>
+      </c>
+      <c r="O12" s="33">
+        <f t="shared" ref="O12:O13" si="6">N4</f>
+        <v>2.2118736519958899E-2</v>
+      </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="32"/>
     </row>
@@ -5251,13 +5454,37 @@
       <c r="B13" s="1">
         <v>0.252</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="34"/>
+      <c r="H13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="31" t="str">
+        <f t="shared" ref="I13:J13" si="7">"\num{" &amp; TEXT(H5/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{2.98E+08}</v>
+      </c>
+      <c r="J13" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>\num{0.02E+08}</v>
+      </c>
+      <c r="K13" s="34">
+        <f t="shared" si="2"/>
+        <v>8.2432559208441177E-3</v>
+      </c>
+      <c r="L13" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>\num{0.01E+08}</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="shared" si="4"/>
+        <v>3.7095365446670673E-3</v>
+      </c>
+      <c r="N13" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>\num{0.03E+08}</v>
+      </c>
+      <c r="O13" s="34">
+        <f t="shared" si="6"/>
+        <v>9.0394651143058287E-3</v>
+      </c>
       <c r="P13" s="34"/>
       <c r="Q13" s="31"/>
     </row>
@@ -5266,6 +5493,7 @@
       <c r="J14" s="32"/>
       <c r="K14" s="33"/>
       <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="33"/>
@@ -5321,7 +5549,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <f>299792458/1.000276</f>
@@ -5417,11 +5645,11 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:F22" si="1">(E$21-$C22)/SQRT(E$20^2+$B22^2)</f>
+        <f t="shared" ref="E22:F22" si="8">(E$21-$C22)/SQRT(E$20^2+$B22^2)</f>
         <v>1.3862428673794263</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.11383843776742338</v>
       </c>
       <c r="I22" s="32"/>
@@ -5446,15 +5674,15 @@
         <v>307778654.13901591</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:F24" si="2">(D$21-$C23)/SQRT(D$20^2+$B23^2)</f>
+        <f t="shared" ref="D23:F24" si="9">(D$21-$C23)/SQRT(D$20^2+$B23^2)</f>
         <v>-1.3862428673794263</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-1.3314251771209229</v>
       </c>
       <c r="I23" s="31"/>
@@ -5479,15 +5707,15 @@
         <v>298030813.56154925</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>-0.11383843776742338</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.3314251771209229</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I24" s="32"/>
@@ -5548,14 +5776,14 @@
         <f>C27*A27</f>
         <v>3.8828080740541106E-5</v>
       </c>
-      <c r="H27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" t="s">
-        <v>71</v>
+      <c r="H27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="34"/>
@@ -5564,31 +5792,31 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28">
-        <f t="shared" ref="A28:A29" si="3">C23</f>
+        <f t="shared" ref="A28:A29" si="10">C23</f>
         <v>307778654.13901591</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="4">B23</f>
+        <f t="shared" ref="B28" si="11">B23</f>
         <v>6807674.9573684502</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C29" si="5">B28^-2</f>
+        <f t="shared" ref="C28:C29" si="12">B28^-2</f>
         <v>2.1577562187362705E-14</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D29" si="6">C28*A28</f>
+        <f t="shared" ref="D28:D29" si="13">C28*A28</f>
         <v>6.6411130496274134E-6</v>
       </c>
-      <c r="H28">
-        <f>D30/C30</f>
-        <v>298558558.72766507</v>
-      </c>
-      <c r="I28">
-        <f>C30^-0.5</f>
-        <v>1857484.7945189711</v>
-      </c>
-      <c r="J28">
-        <f>I28/H28</f>
+      <c r="H28" s="31" t="str">
+        <f>"\num{" &amp; TEXT(D30/(C30*100000000),"0.00") &amp; "E+08}"</f>
+        <v>\num{2.99E+08}</v>
+      </c>
+      <c r="I28" s="34" t="str">
+        <f>"\num{" &amp; TEXT(C30^-0.5/100000000,"0.00") &amp; "E+08}"</f>
+        <v>\num{0.02E+08}</v>
+      </c>
+      <c r="J28" s="34">
+        <f>((D30/C30)/C30^-0.5)^-1</f>
         <v>6.2215091151123399E-3</v>
       </c>
       <c r="N28" s="32"/>
@@ -5598,7 +5826,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>298030813.56154925</v>
       </c>
       <c r="B29">
@@ -5606,11 +5834,11 @@
         <v>2694039.142177809</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.3778190885467998E-13</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>4.1063254390023501E-5</v>
       </c>
       <c r="N29" s="31"/>
@@ -5632,13 +5860,56 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="H31">
+      <c r="H31" t="e">
         <f>ABS(H28-B18)/I28</f>
-        <v>0.61975171372214444</v>
-      </c>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="8:13">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="8:13">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="31"/>
+    </row>
+    <row r="38" spans="8:13">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="M38" s="32"/>
+    </row>
+    <row r="39" spans="8:13">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5646,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37:X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5787,7 +6058,7 @@
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
       <c r="S9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:43" ht="15.75" thickBot="1">
@@ -5939,7 +6210,7 @@
     </row>
     <row r="12" spans="1:43" ht="15.75" thickBot="1">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -5984,7 +6255,7 @@
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>20</v>
@@ -9164,10 +9435,10 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="AQ33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AR33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:44">
@@ -9225,13 +9496,13 @@
       <c r="S37" s="2"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X37" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="X37" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="AK37" s="35"/>
     </row>
@@ -9251,7 +9522,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="U38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V38" s="31" t="str">
         <f>"\num{" &amp; TEXT(O37/1000000,"0.00") &amp; "E6}"</f>
@@ -9348,28 +9619,28 @@
         <v>4.7232075755814305E-6</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="O42" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N42" s="4" t="s">
+      <c r="P42" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="S42" s="2"/>
       <c r="AK42" s="35"/>
@@ -9469,7 +9740,7 @@
         <v>\num{8.13E+06}</v>
       </c>
       <c r="R44" s="33">
-        <f t="shared" ref="P44:R61" si="39">R14</f>
+        <f t="shared" ref="R44:R61" si="39">R14</f>
         <v>3.9843524928798821E-2</v>
       </c>
       <c r="AK44" s="35"/>
@@ -10285,13 +10556,13 @@
         <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s">
         <v>62</v>
@@ -10352,8 +10623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10627,7 +10898,7 @@
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>20</v>
@@ -11922,64 +12193,64 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="V26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s">
+        <v>77</v>
+      </c>
+      <c r="X26" t="s">
         <v>78</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Y26" t="s">
         <v>79</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Z26" t="s">
         <v>80</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>81</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AB26" t="s">
         <v>82</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AC26" t="s">
         <v>83</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>84</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AE26" t="s">
         <v>85</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>86</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AG26" t="s">
         <v>87</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AH26" t="s">
         <v>88</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AI26" t="s">
         <v>89</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AJ26" t="s">
         <v>90</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AK26" t="s">
         <v>91</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>92</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AM26" t="s">
         <v>93</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>94</v>
       </c>
-      <c r="AM26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>96</v>
-      </c>
       <c r="AO26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -12222,13 +12493,13 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
         <v>52</v>
@@ -12269,28 +12540,28 @@
         <v>2.2118736519958899E-2</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="P41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -12300,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="31" t="str">
-        <f t="shared" ref="L42:M57" si="18">"\num{" &amp; B13 &amp; "}"</f>
+        <f t="shared" ref="L42:M51" si="18">"\num{" &amp; B13 &amp; "}"</f>
         <v>\num{118}</v>
       </c>
       <c r="M42" s="31" t="str">
@@ -12324,7 +12595,7 @@
         <v>\num{8.38E+06}</v>
       </c>
       <c r="R42" s="34">
-        <f>R13</f>
+        <f t="shared" ref="R42:R51" si="19">R13</f>
         <v>4.9402382105029022E-2</v>
       </c>
     </row>
@@ -12344,23 +12615,23 @@
         <v>\num{908}</v>
       </c>
       <c r="N43" s="32" t="str">
-        <f t="shared" ref="N43:O58" si="19">"\num{" &amp; TEXT(D14/0.001, "00.00") &amp; "}"</f>
+        <f t="shared" ref="N43:O51" si="20">"\num{" &amp; TEXT(D14/0.001, "00.00") &amp; "}"</f>
         <v>\num{09.88}</v>
       </c>
       <c r="O43" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.65}</v>
+      </c>
+      <c r="P43" s="32" t="str">
+        <f t="shared" ref="P43:Q43" si="21">"\num{" &amp; TEXT(O14/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{290.74E+06}</v>
+      </c>
+      <c r="Q43" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>\num{7.58E+06}</v>
+      </c>
+      <c r="R43" s="33">
         <f t="shared" si="19"/>
-        <v>\num{09.65}</v>
-      </c>
-      <c r="P43" s="32" t="str">
-        <f t="shared" ref="P43:Q43" si="20">"\num{" &amp; TEXT(O14/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{290.74E+06}</v>
-      </c>
-      <c r="Q43" s="32" t="str">
-        <f t="shared" si="20"/>
-        <v>\num{7.58E+06}</v>
-      </c>
-      <c r="R43" s="33">
-        <f>R14</f>
         <v>5.3242988088032683E-2</v>
       </c>
     </row>
@@ -12381,23 +12652,23 @@
         <v>\num{915}</v>
       </c>
       <c r="N44" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.86}</v>
+      </c>
+      <c r="O44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.65}</v>
+      </c>
+      <c r="P44" s="34" t="str">
+        <f t="shared" ref="P44:Q44" si="22">"\num{" &amp; TEXT(O15/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{316.03E+06}</v>
+      </c>
+      <c r="Q44" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{8.24E+06}</v>
+      </c>
+      <c r="R44" s="34">
         <f t="shared" si="19"/>
-        <v>\num{09.86}</v>
-      </c>
-      <c r="O44" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.65}</v>
-      </c>
-      <c r="P44" s="34" t="str">
-        <f t="shared" ref="P44:Q44" si="21">"\num{" &amp; TEXT(O15/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{316.03E+06}</v>
-      </c>
-      <c r="Q44" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{8.24E+06}</v>
-      </c>
-      <c r="R44" s="34">
-        <f>R15</f>
         <v>5.0037294071765312E-2</v>
       </c>
     </row>
@@ -12414,23 +12685,23 @@
         <v>\num{908}</v>
       </c>
       <c r="N45" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.88}</v>
+      </c>
+      <c r="O45" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.65}</v>
+      </c>
+      <c r="P45" s="32" t="str">
+        <f t="shared" ref="P45:Q45" si="23">"\num{" &amp; TEXT(O16/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{290.38E+06}</v>
+      </c>
+      <c r="Q45" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.57E+06}</v>
+      </c>
+      <c r="R45" s="33">
         <f t="shared" si="19"/>
-        <v>\num{09.88}</v>
-      </c>
-      <c r="O45" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.65}</v>
-      </c>
-      <c r="P45" s="32" t="str">
-        <f t="shared" ref="P45:Q45" si="22">"\num{" &amp; TEXT(O16/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{290.38E+06}</v>
-      </c>
-      <c r="Q45" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.57E+06}</v>
-      </c>
-      <c r="R45" s="33">
-        <f>R16</f>
         <v>5.329404508379719E-2</v>
       </c>
     </row>
@@ -12447,23 +12718,23 @@
         <v>\num{963}</v>
       </c>
       <c r="N46" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.87}</v>
+      </c>
+      <c r="O46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.62}</v>
+      </c>
+      <c r="P46" s="34" t="str">
+        <f t="shared" ref="P46:Q46" si="24">"\num{" &amp; TEXT(O17/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{291.74E+06}</v>
+      </c>
+      <c r="Q46" s="34" t="str">
+        <f t="shared" si="24"/>
+        <v>\num{7.60E+06}</v>
+      </c>
+      <c r="R46" s="34">
         <f t="shared" si="19"/>
-        <v>\num{09.87}</v>
-      </c>
-      <c r="O46" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.62}</v>
-      </c>
-      <c r="P46" s="34" t="str">
-        <f t="shared" ref="P46:Q46" si="23">"\num{" &amp; TEXT(O17/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{291.74E+06}</v>
-      </c>
-      <c r="Q46" s="34" t="str">
-        <f t="shared" si="23"/>
-        <v>\num{7.60E+06}</v>
-      </c>
-      <c r="R46" s="34">
-        <f>R17</f>
         <v>5.3104839042376006E-2</v>
       </c>
     </row>
@@ -12480,23 +12751,23 @@
         <v>\num{1400}</v>
       </c>
       <c r="N47" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.88}</v>
+      </c>
+      <c r="O47" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P47" s="32" t="str">
+        <f t="shared" ref="P47:Q47" si="25">"\num{" &amp; TEXT(O18/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{317.87E+06}</v>
+      </c>
+      <c r="Q47" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v>\num{8.29E+06}</v>
+      </c>
+      <c r="R47" s="33">
         <f t="shared" si="19"/>
-        <v>\num{09.88}</v>
-      </c>
-      <c r="O47" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P47" s="32" t="str">
-        <f t="shared" ref="P47:Q47" si="24">"\num{" &amp; TEXT(O18/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{317.87E+06}</v>
-      </c>
-      <c r="Q47" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v>\num{8.29E+06}</v>
-      </c>
-      <c r="R47" s="33">
-        <f>R18</f>
         <v>4.9825865751132382E-2</v>
       </c>
     </row>
@@ -12513,23 +12784,23 @@
         <v>\num{1395}</v>
       </c>
       <c r="N48" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.88}</v>
+      </c>
+      <c r="O48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P48" s="34" t="str">
+        <f t="shared" ref="P48:Q48" si="26">"\num{" &amp; TEXT(O19/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{317.07E+06}</v>
+      </c>
+      <c r="Q48" s="34" t="str">
+        <f t="shared" si="26"/>
+        <v>\num{8.26E+06}</v>
+      </c>
+      <c r="R48" s="34">
         <f t="shared" si="19"/>
-        <v>\num{09.88}</v>
-      </c>
-      <c r="O48" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P48" s="34" t="str">
-        <f t="shared" ref="P48:Q48" si="25">"\num{" &amp; TEXT(O19/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{317.07E+06}</v>
-      </c>
-      <c r="Q48" s="34" t="str">
-        <f t="shared" si="25"/>
-        <v>\num{8.26E+06}</v>
-      </c>
-      <c r="R48" s="34">
-        <f>R19</f>
         <v>4.9917987885225466E-2</v>
       </c>
     </row>
@@ -12546,23 +12817,23 @@
         <v>\num{1385}</v>
       </c>
       <c r="N49" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.89}</v>
+      </c>
+      <c r="O49" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P49" s="32" t="str">
+        <f t="shared" ref="P49:Q49" si="27">"\num{" &amp; TEXT(O20/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{306.08E+06}</v>
+      </c>
+      <c r="Q49" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v>\num{7.98E+06}</v>
+      </c>
+      <c r="R49" s="33">
         <f t="shared" si="19"/>
-        <v>\num{09.89}</v>
-      </c>
-      <c r="O49" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P49" s="32" t="str">
-        <f t="shared" ref="P49:Q49" si="26">"\num{" &amp; TEXT(O20/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{306.08E+06}</v>
-      </c>
-      <c r="Q49" s="32" t="str">
-        <f t="shared" si="26"/>
-        <v>\num{7.98E+06}</v>
-      </c>
-      <c r="R49" s="33">
-        <f>R20</f>
         <v>5.1227117999630846E-2</v>
       </c>
     </row>
@@ -12579,23 +12850,23 @@
         <v>\num{1396}</v>
       </c>
       <c r="N50" s="31" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.88}</v>
+      </c>
+      <c r="O50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P50" s="34" t="str">
+        <f t="shared" ref="P50:Q50" si="28">"\num{" &amp; TEXT(O21/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{326.23E+06}</v>
+      </c>
+      <c r="Q50" s="34" t="str">
+        <f t="shared" si="28"/>
+        <v>\num{8.50E+06}</v>
+      </c>
+      <c r="R50" s="34">
         <f t="shared" si="19"/>
-        <v>\num{09.88}</v>
-      </c>
-      <c r="O50" s="34" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P50" s="34" t="str">
-        <f t="shared" ref="P50:Q50" si="27">"\num{" &amp; TEXT(O21/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{326.23E+06}</v>
-      </c>
-      <c r="Q50" s="34" t="str">
-        <f t="shared" si="27"/>
-        <v>\num{8.50E+06}</v>
-      </c>
-      <c r="R50" s="34">
-        <f>R21</f>
         <v>4.8901959038654942E-2</v>
       </c>
     </row>
@@ -12612,23 +12883,23 @@
         <v>\num{1385}</v>
       </c>
       <c r="N51" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.89}</v>
+      </c>
+      <c r="O51" s="32" t="str">
+        <f t="shared" si="20"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P51" s="32" t="str">
+        <f t="shared" ref="P51:Q51" si="29">"\num{" &amp; TEXT(O22/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{310.89E+06}</v>
+      </c>
+      <c r="Q51" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v>\num{8.10E+06}</v>
+      </c>
+      <c r="R51" s="33">
         <f t="shared" si="19"/>
-        <v>\num{09.89}</v>
-      </c>
-      <c r="O51" s="32" t="str">
-        <f t="shared" si="19"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P51" s="32" t="str">
-        <f t="shared" ref="P51:Q51" si="28">"\num{" &amp; TEXT(O22/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{310.89E+06}</v>
-      </c>
-      <c r="Q51" s="32" t="str">
-        <f t="shared" si="28"/>
-        <v>\num{8.10E+06}</v>
-      </c>
-      <c r="R51" s="33">
-        <f>R22</f>
         <v>5.0640630467443978E-2</v>
       </c>
     </row>
@@ -12646,8 +12917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12683,7 +12954,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -12921,7 +13192,7 @@
         <v>36</v>
       </c>
       <c r="T12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U12" s="38" t="s">
         <v>20</v>
@@ -14193,7 +14464,7 @@
         <v>61</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S25" s="2"/>
     </row>
@@ -14469,28 +14740,28 @@
     </row>
     <row r="41" spans="2:21">
       <c r="K41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="P41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="S41" s="2"/>
     </row>
@@ -14502,13 +14773,13 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
         <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
         <v>52</v>
@@ -14544,7 +14815,7 @@
         <v>\num{7.74E+06}</v>
       </c>
       <c r="R42" s="34">
-        <f>R13</f>
+        <f t="shared" ref="R42:R51" si="21">R13</f>
         <v>2.8601034957064574E-2</v>
       </c>
       <c r="S42" s="2"/>
@@ -14592,23 +14863,23 @@
         <v>\num{1382}</v>
       </c>
       <c r="N43" s="32" t="str">
-        <f t="shared" ref="N43:O51" si="21">"\num{" &amp; TEXT(D14/0.001, "00.00") &amp; "}"</f>
+        <f t="shared" ref="N43:O51" si="22">"\num{" &amp; TEXT(D14/0.001, "00.00") &amp; "}"</f>
         <v>\num{10.31}</v>
       </c>
       <c r="O43" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P43" s="32" t="str">
+        <f t="shared" ref="P43:Q51" si="23">"\num{" &amp; TEXT(O14/1000000, "0.00") &amp; "E+06}"</f>
+        <v>\num{302.97E+06}</v>
+      </c>
+      <c r="Q43" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.90E+06}</v>
+      </c>
+      <c r="R43" s="33">
         <f t="shared" si="21"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P43" s="32" t="str">
-        <f t="shared" ref="P43:Q51" si="22">"\num{" &amp; TEXT(O14/1000000, "0.00") &amp; "E+06}"</f>
-        <v>\num{302.97E+06}</v>
-      </c>
-      <c r="Q43" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.90E+06}</v>
-      </c>
-      <c r="R43" s="33">
-        <f>R14</f>
         <v>2.8505803970906053E-2</v>
       </c>
     </row>
@@ -14625,23 +14896,23 @@
         <v>\num{1373}</v>
       </c>
       <c r="N44" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.32}</v>
+      </c>
+      <c r="O44" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P44" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{293.24E+06}</v>
+      </c>
+      <c r="Q44" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.64E+06}</v>
+      </c>
+      <c r="R44" s="34">
         <f t="shared" si="21"/>
-        <v>\num{10.32}</v>
-      </c>
-      <c r="O44" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P44" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{293.24E+06}</v>
-      </c>
-      <c r="Q44" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.64E+06}</v>
-      </c>
-      <c r="R44" s="34">
-        <f>R15</f>
         <v>2.8663088852797947E-2</v>
       </c>
     </row>
@@ -14661,23 +14932,23 @@
         <v>\num{1395}</v>
       </c>
       <c r="N45" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.33}</v>
+      </c>
+      <c r="O45" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P45" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{293.46E+06}</v>
+      </c>
+      <c r="Q45" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.65E+06}</v>
+      </c>
+      <c r="R45" s="33">
         <f t="shared" si="21"/>
-        <v>\num{10.33}</v>
-      </c>
-      <c r="O45" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P45" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{293.46E+06}</v>
-      </c>
-      <c r="Q45" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.65E+06}</v>
-      </c>
-      <c r="R45" s="33">
-        <f>R16</f>
         <v>2.8659231711239776E-2</v>
       </c>
     </row>
@@ -14698,23 +14969,23 @@
         <v>\num{1397}</v>
       </c>
       <c r="N46" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.32}</v>
+      </c>
+      <c r="O46" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P46" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{298.72E+06}</v>
+      </c>
+      <c r="Q46" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.79E+06}</v>
+      </c>
+      <c r="R46" s="34">
         <f t="shared" si="21"/>
-        <v>\num{10.32}</v>
-      </c>
-      <c r="O46" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P46" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{298.72E+06}</v>
-      </c>
-      <c r="Q46" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.79E+06}</v>
-      </c>
-      <c r="R46" s="34">
-        <f>R17</f>
         <v>2.8572795164306764E-2</v>
       </c>
     </row>
@@ -14731,23 +15002,23 @@
         <v>\num{1396}</v>
       </c>
       <c r="N47" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.32}</v>
+      </c>
+      <c r="O47" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.52}</v>
+      </c>
+      <c r="P47" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{296.03E+06}</v>
+      </c>
+      <c r="Q47" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.72E+06}</v>
+      </c>
+      <c r="R47" s="33">
         <f t="shared" si="21"/>
-        <v>\num{10.32}</v>
-      </c>
-      <c r="O47" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.52}</v>
-      </c>
-      <c r="P47" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{296.03E+06}</v>
-      </c>
-      <c r="Q47" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.72E+06}</v>
-      </c>
-      <c r="R47" s="33">
-        <f>R18</f>
         <v>2.8616377318931938E-2</v>
       </c>
     </row>
@@ -14764,23 +15035,23 @@
         <v>\num{1394}</v>
       </c>
       <c r="N48" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.32}</v>
+      </c>
+      <c r="O48" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P48" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{301.91E+06}</v>
+      </c>
+      <c r="Q48" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.87E+06}</v>
+      </c>
+      <c r="R48" s="34">
         <f t="shared" si="21"/>
-        <v>\num{10.32}</v>
-      </c>
-      <c r="O48" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P48" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{301.91E+06}</v>
-      </c>
-      <c r="Q48" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.87E+06}</v>
-      </c>
-      <c r="R48" s="34">
-        <f>R19</f>
         <v>2.8522363110912493E-2</v>
       </c>
     </row>
@@ -14797,23 +15068,23 @@
         <v>\num{1399}</v>
       </c>
       <c r="N49" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.34}</v>
+      </c>
+      <c r="O49" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.54}</v>
+      </c>
+      <c r="P49" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{299.49E+06}</v>
+      </c>
+      <c r="Q49" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.81E+06}</v>
+      </c>
+      <c r="R49" s="33">
         <f t="shared" si="21"/>
-        <v>\num{10.34}</v>
-      </c>
-      <c r="O49" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.54}</v>
-      </c>
-      <c r="P49" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{299.49E+06}</v>
-      </c>
-      <c r="Q49" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.81E+06}</v>
-      </c>
-      <c r="R49" s="33">
-        <f>R20</f>
         <v>2.8560487205637398E-2</v>
       </c>
     </row>
@@ -14830,23 +15101,23 @@
         <v>\num{1398}</v>
       </c>
       <c r="N50" s="31" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.35}</v>
+      </c>
+      <c r="O50" s="34" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.55}</v>
+      </c>
+      <c r="P50" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{296.25E+06}</v>
+      </c>
+      <c r="Q50" s="34" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.72E+06}</v>
+      </c>
+      <c r="R50" s="34">
         <f t="shared" si="21"/>
-        <v>\num{10.35}</v>
-      </c>
-      <c r="O50" s="34" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.55}</v>
-      </c>
-      <c r="P50" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{296.25E+06}</v>
-      </c>
-      <c r="Q50" s="34" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.72E+06}</v>
-      </c>
-      <c r="R50" s="34">
-        <f>R21</f>
         <v>2.8612914424407724E-2</v>
       </c>
     </row>
@@ -14863,23 +15134,23 @@
         <v>\num{1395}</v>
       </c>
       <c r="N51" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{10.32}</v>
+      </c>
+      <c r="O51" s="32" t="str">
+        <f t="shared" si="22"/>
+        <v>\num{09.53}</v>
+      </c>
+      <c r="P51" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{302.01E+06}</v>
+      </c>
+      <c r="Q51" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>\num{7.87E+06}</v>
+      </c>
+      <c r="R51" s="33">
         <f t="shared" si="21"/>
-        <v>\num{10.32}</v>
-      </c>
-      <c r="O51" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>\num{09.53}</v>
-      </c>
-      <c r="P51" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{302.01E+06}</v>
-      </c>
-      <c r="Q51" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>\num{7.87E+06}</v>
-      </c>
-      <c r="R51" s="33">
-        <f>R22</f>
         <v>2.8520693214440403E-2</v>
       </c>
     </row>
